--- a/SDS13548-List-of-defined-Z-Wave-Command-Classes.xlsx
+++ b/SDS13548-List-of-defined-Z-Wave-Command-Classes.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://highstage.silabs.com/files/6901/SDS/SDS13548/SDS13548/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-35775" yWindow="-2535" windowWidth="34815" windowHeight="16440" tabRatio="711" activeTab="3"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" tabRatio="711" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Frontpage" sheetId="7" r:id="rId1"/>
-    <sheet name="Change" sheetId="6" r:id="rId2"/>
-    <sheet name="Command Class" sheetId="1" r:id="rId3"/>
-    <sheet name="Commands" sheetId="8" r:id="rId4"/>
+    <sheet name="Frontpage" sheetId="7" r:id="rId2"/>
+    <sheet name="Change" sheetId="6" r:id="rId3"/>
+    <sheet name="Command Class" sheetId="1" r:id="rId4"/>
+    <sheet name="Commands" sheetId="8" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Command Class'!$A$1:$I$123</definedName>
@@ -18,11 +23,12 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'Command Class'!$1:$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <extLst/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4804" uniqueCount="1754">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4806" uniqueCount="1754">
   <si>
     <t>status</t>
   </si>
@@ -5333,8 +5339,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5381,7 +5387,7 @@
     </font>
     <font>
       <b/>
-      <u/>
+      <u val="single"/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -5403,7 +5409,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <u val="single"/>
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
@@ -5445,7 +5451,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79985961485641044"/>
+        <fgColor theme="6" tint="0.799860000610352"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5475,7 +5481,6 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -5486,7 +5491,6 @@
       </right>
       <top/>
       <bottom/>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -5499,7 +5503,6 @@
         <color auto="1"/>
       </top>
       <bottom/>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -5514,11 +5517,32 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="21">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="50">
@@ -5603,13 +5627,13 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="20" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="20" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="20" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -5646,7 +5670,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="4" xfId="20" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5655,16 +5679,88 @@
     <xf numFmtId="14" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="4" xfId="20" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+  <cellStyles count="7">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="15" builtinId="5"/>
+    <cellStyle name="Currency" xfId="16" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="17" builtinId="7"/>
+    <cellStyle name="Comma" xfId="18" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="19" builtinId="6"/>
+    <cellStyle name="Hyperlink" xfId="20" builtinId="8"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -5677,7 +5773,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -5694,7 +5790,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -5704,9 +5800,7 @@
           <a:off x="0" y="0"/>
           <a:ext cx="3105150" cy="1371600"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
+        <a:prstGeom prst="rect"/>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -5715,9 +5809,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -5755,9 +5849,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5790,9 +5884,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5825,9 +5936,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -6000,115 +6128,115 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" topLeftCell="A1"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.86428571428571" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="115.7109375" customWidth="1"/>
+    <col min="1" max="1" width="115.714285714286" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="262.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" ht="262.5" customHeight="1">
       <c r="A1" s="16" t="s">
         <v>1605</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" ht="14.25">
       <c r="A2" s="17" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" ht="14.25">
       <c r="A3" s="18" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" ht="14.25">
       <c r="A4" s="19" t="s">
         <v>1611</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" ht="14.25">
       <c r="A5" s="18" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" ht="30" customHeight="1">
       <c r="A6" s="20" t="s">
         <v>1615</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" ht="14.25">
       <c r="A7" s="18" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" ht="90" customHeight="1">
       <c r="A8" s="20" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" ht="14.25">
       <c r="A9" s="18" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" ht="45" customHeight="1">
       <c r="A10" s="20" t="s">
         <v>1612</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" ht="14.25">
       <c r="A11" s="18" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="12" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" ht="30" customHeight="1">
       <c r="A12" s="20" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" ht="75" customHeight="1">
       <c r="A13" s="20" t="s">
         <v>1613</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" ht="14.25">
       <c r="A14" s="18" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="15" spans="1:1" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" ht="51">
       <c r="A15" s="21" t="s">
         <v>1614</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId2"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView workbookViewId="0" topLeftCell="A7">
+      <selection pane="topLeft" activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.86428571428571" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.7142857142857" customWidth="1"/>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" customWidth="1"/>
-    <col min="4" max="4" width="67.7109375" customWidth="1"/>
+    <col min="3" max="3" width="12.1428571428571" customWidth="1"/>
+    <col min="4" max="4" width="67.7142857142857" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="56.25" customHeight="1">
       <c r="A1" s="12" t="s">
         <v>358</v>
       </c>
@@ -6116,7 +6244,7 @@
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="14.25">
       <c r="A2" s="22" t="s">
         <v>329</v>
       </c>
@@ -6130,7 +6258,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="14.25">
       <c r="A3" s="35">
         <v>1</v>
       </c>
@@ -6144,7 +6272,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="42.75">
       <c r="A4" s="35">
         <v>2</v>
       </c>
@@ -6158,7 +6286,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="28.5">
       <c r="A5" s="35">
         <v>3</v>
       </c>
@@ -6172,7 +6300,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="14.25">
       <c r="A6" s="35">
         <v>4</v>
       </c>
@@ -6186,7 +6314,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="28.5">
       <c r="A7" s="35">
         <v>5</v>
       </c>
@@ -6200,7 +6328,7 @@
         <v>1516</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="14.25">
       <c r="A8" s="35">
         <v>6</v>
       </c>
@@ -6214,7 +6342,7 @@
         <v>1616</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="28.5">
       <c r="A9" s="35">
         <v>7</v>
       </c>
@@ -6228,7 +6356,7 @@
         <v>1610</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="14.25">
       <c r="A10" s="35">
         <v>8</v>
       </c>
@@ -6242,7 +6370,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="14.25">
       <c r="A11" s="35">
         <v>9</v>
       </c>
@@ -6256,7 +6384,7 @@
         <v>1653</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="31.5" customHeight="1">
       <c r="A12" s="35">
         <v>10</v>
       </c>
@@ -6270,7 +6398,7 @@
         <v>1654</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="42.75">
       <c r="A13" s="35">
         <v>11</v>
       </c>
@@ -6284,7 +6412,7 @@
         <v>1688</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="28.5">
       <c r="A14" s="35">
         <v>12</v>
       </c>
@@ -6296,6 +6424,20 @@
       </c>
       <c r="D14" s="14" t="s">
         <v>1729</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="14.25">
+      <c r="A15" s="35">
+        <v>13</v>
+      </c>
+      <c r="B15" s="34" t="s">
+        <v>1728</v>
+      </c>
+      <c r="C15" s="15">
+        <v>43475</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>1653</v>
       </c>
     </row>
   </sheetData>
@@ -6303,36 +6445,37 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="74" orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="74" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:I123"/>
   <sheetViews>
-    <sheetView zoomScaleSheetLayoutView="40" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F100" sqref="F100"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="40" workbookViewId="0" topLeftCell="A1">
+      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="G116" sqref="G116"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.86428571428571" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="66.5703125" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="63.140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.140625" style="13" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" style="13" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" style="13" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" style="13" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" customWidth="1"/>
-    <col min="9" max="9" width="67.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="66.5714285714286" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="63.1428571428571" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.1428571428571" style="13" customWidth="1"/>
+    <col min="4" max="4" width="15.7142857142857" style="13" customWidth="1"/>
+    <col min="5" max="5" width="9.57142857142857" style="13" customWidth="1"/>
+    <col min="6" max="6" width="11.7142857142857" style="13" customWidth="1"/>
+    <col min="7" max="7" width="14.5714285714286" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.7142857142857" customWidth="1"/>
+    <col min="9" max="9" width="67.7142857142857" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="36">
       <c r="A1" s="27" t="s">
         <v>1727</v>
       </c>
@@ -6361,7 +6504,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" s="23" customFormat="1" ht="15.75">
       <c r="A2" s="24" t="s">
         <v>3</v>
       </c>
@@ -6392,7 +6535,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" s="23" customFormat="1" ht="15.75">
       <c r="A3" s="25" t="s">
         <v>7</v>
       </c>
@@ -6400,7 +6543,7 @@
         <v>8</v>
       </c>
       <c r="C3" s="29" t="str">
-        <f t="shared" ref="C3" si="0">HYPERLINK("https://www.silabs.com/documents/login/miscellaneous/SDS13781-Z-Wave-Application-Command-Class-Specification.pdf","Application")</f>
+        <f t="shared" si="0" ref="C3">HYPERLINK("https://www.silabs.com/documents/login/miscellaneous/SDS13781-Z-Wave-Application-Command-Class-Specification.pdf","Application")</f>
         <v>Application</v>
       </c>
       <c r="D3" s="25" t="s">
@@ -6422,7 +6565,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" s="23" customFormat="1" ht="15.75">
       <c r="A4" s="25" t="s">
         <v>10</v>
       </c>
@@ -6452,7 +6595,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" s="23" customFormat="1" ht="15.75">
       <c r="A5" s="25" t="s">
         <v>13</v>
       </c>
@@ -6482,7 +6625,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" s="23" customFormat="1" ht="15.75">
       <c r="A6" s="25" t="s">
         <v>16</v>
       </c>
@@ -6512,7 +6655,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" s="23" customFormat="1" ht="15.75">
       <c r="A7" s="25" t="s">
         <v>19</v>
       </c>
@@ -6542,7 +6685,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" s="23" customFormat="1" ht="15.75">
       <c r="A8" s="25" t="s">
         <v>23</v>
       </c>
@@ -6550,7 +6693,7 @@
         <v>24</v>
       </c>
       <c r="C8" s="30" t="str">
-        <f t="shared" ref="C8" si="1">HYPERLINK("https://www.silabs.com/documents/login/miscellaneous/SDS13782-Z-Wave-Management-Command-Class-Specification.pdf","Management")</f>
+        <f t="shared" si="1" ref="C8">HYPERLINK("https://www.silabs.com/documents/login/miscellaneous/SDS13782-Z-Wave-Management-Command-Class-Specification.pdf","Management")</f>
         <v>Management</v>
       </c>
       <c r="D8" s="25" t="s">
@@ -6572,7 +6715,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" s="23" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="25" t="s">
         <v>25</v>
       </c>
@@ -6603,7 +6746,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="10" spans="1:9" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" s="23" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="25" t="s">
         <v>28</v>
       </c>
@@ -6633,7 +6776,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" s="23" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="25" t="s">
         <v>31</v>
       </c>
@@ -6657,14 +6800,14 @@
         <v>42917</v>
       </c>
       <c r="H11" s="46" t="str">
-        <f t="shared" ref="H11" si="2">HYPERLINK("https://www.silabs.com/documents/login/miscellaneous/SDS14223-Z-Wave-Command-Class-Control-Specification.pdf","Yes")</f>
+        <f t="shared" si="2" ref="H11">HYPERLINK("https://www.silabs.com/documents/login/miscellaneous/SDS14223-Z-Wave-Command-Class-Control-Specification.pdf","Yes")</f>
         <v>Yes</v>
       </c>
       <c r="I11" s="32" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="12" spans="1:9" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" s="23" customFormat="1" ht="15.75">
       <c r="A12" s="47" t="s">
         <v>1689</v>
       </c>
@@ -6672,7 +6815,7 @@
         <v>1690</v>
       </c>
       <c r="C12" s="29" t="str">
-        <f t="shared" ref="C12" si="3">HYPERLINK("https://www.silabs.com/documents/login/miscellaneous/SDS13781-Z-Wave-Application-Command-Class-Specification.pdf","Application")</f>
+        <f t="shared" si="3" ref="C12">HYPERLINK("https://www.silabs.com/documents/login/miscellaneous/SDS13781-Z-Wave-Application-Command-Class-Specification.pdf","Application")</f>
         <v>Application</v>
       </c>
       <c r="D12" s="25" t="s">
@@ -6685,7 +6828,7 @@
         <v>1</v>
       </c>
       <c r="G12" s="33">
-        <v>43556</v>
+        <v>43739</v>
       </c>
       <c r="H12" s="32" t="s">
         <v>1618</v>
@@ -6694,7 +6837,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="13" spans="1:9" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" s="23" customFormat="1" ht="15" customHeight="1">
       <c r="A13" s="47" t="s">
         <v>1692</v>
       </c>
@@ -6724,7 +6867,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="14" spans="1:9" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" s="23" customFormat="1" ht="15" customHeight="1">
       <c r="A14" s="25" t="s">
         <v>34</v>
       </c>
@@ -6755,7 +6898,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="15" spans="1:9" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" s="23" customFormat="1" ht="15" customHeight="1">
       <c r="A15" s="25" t="s">
         <v>37</v>
       </c>
@@ -6786,7 +6929,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="16" spans="1:9" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" s="23" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="25" t="s">
         <v>40</v>
       </c>
@@ -6816,7 +6959,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="17" spans="1:9" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" s="23" customFormat="1" ht="15" customHeight="1">
       <c r="A17" s="25" t="s">
         <v>43</v>
       </c>
@@ -6846,7 +6989,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="18" spans="1:9" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" s="23" customFormat="1" ht="15.75">
       <c r="A18" s="25" t="s">
         <v>47</v>
       </c>
@@ -6867,7 +7010,7 @@
         <v>2</v>
       </c>
       <c r="G18" s="33">
-        <v>43647</v>
+        <v>43739</v>
       </c>
       <c r="H18" s="46" t="str">
         <f>HYPERLINK("https://www.silabs.com/documents/login/miscellaneous/SDS14223-Z-Wave-Command-Class-Control-Specification.pdf","Yes")</f>
@@ -6877,7 +7020,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="19" spans="1:9" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" s="23" customFormat="1" ht="15" customHeight="1">
       <c r="A19" s="25" t="s">
         <v>50</v>
       </c>
@@ -6885,7 +7028,7 @@
         <v>51</v>
       </c>
       <c r="C19" s="29" t="str">
-        <f t="shared" ref="C19" si="4">HYPERLINK("https://www.silabs.com/documents/login/miscellaneous/SDS13781-Z-Wave-Application-Command-Class-Specification.pdf","Application")</f>
+        <f t="shared" si="4" ref="C19">HYPERLINK("https://www.silabs.com/documents/login/miscellaneous/SDS13781-Z-Wave-Application-Command-Class-Specification.pdf","Application")</f>
         <v>Application</v>
       </c>
       <c r="D19" s="25" t="s">
@@ -6907,7 +7050,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="20" spans="1:9" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" s="23" customFormat="1" ht="15" customHeight="1">
       <c r="A20" s="25" t="s">
         <v>53</v>
       </c>
@@ -6915,7 +7058,7 @@
         <v>54</v>
       </c>
       <c r="C20" s="29" t="str">
-        <f t="shared" ref="C20" si="5">HYPERLINK("https://www.silabs.com/documents/login/miscellaneous/SDS13781-Z-Wave-Application-Command-Class-Specification.pdf","Application")</f>
+        <f t="shared" si="5" ref="C20">HYPERLINK("https://www.silabs.com/documents/login/miscellaneous/SDS13781-Z-Wave-Application-Command-Class-Specification.pdf","Application")</f>
         <v>Application</v>
       </c>
       <c r="D20" s="25" t="s">
@@ -6938,7 +7081,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="21" spans="1:9" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" s="23" customFormat="1" ht="15" customHeight="1">
       <c r="A21" s="25" t="s">
         <v>56</v>
       </c>
@@ -6946,7 +7089,7 @@
         <v>57</v>
       </c>
       <c r="C21" s="29" t="str">
-        <f t="shared" ref="C21" si="6">HYPERLINK("https://www.silabs.com/documents/login/miscellaneous/SDS13781-Z-Wave-Application-Command-Class-Specification.pdf","Application")</f>
+        <f t="shared" si="6" ref="C21">HYPERLINK("https://www.silabs.com/documents/login/miscellaneous/SDS13781-Z-Wave-Application-Command-Class-Specification.pdf","Application")</f>
         <v>Application</v>
       </c>
       <c r="D21" s="25" t="s">
@@ -6968,7 +7111,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="22" spans="1:9" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" s="23" customFormat="1" ht="15" customHeight="1">
       <c r="A22" s="25" t="s">
         <v>59</v>
       </c>
@@ -6976,7 +7119,7 @@
         <v>60</v>
       </c>
       <c r="C22" s="29" t="str">
-        <f t="shared" ref="C22" si="7">HYPERLINK("https://www.silabs.com/documents/login/miscellaneous/SDS13781-Z-Wave-Application-Command-Class-Specification.pdf","Application")</f>
+        <f t="shared" si="7" ref="C22">HYPERLINK("https://www.silabs.com/documents/login/miscellaneous/SDS13781-Z-Wave-Application-Command-Class-Specification.pdf","Application")</f>
         <v>Application</v>
       </c>
       <c r="D22" s="25" t="s">
@@ -6998,7 +7141,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="23" spans="1:9" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" s="23" customFormat="1" ht="15" customHeight="1">
       <c r="A23" s="25" t="s">
         <v>62</v>
       </c>
@@ -7019,7 +7162,7 @@
         <v>3</v>
       </c>
       <c r="G23" s="33">
-        <v>43374</v>
+        <v>43739</v>
       </c>
       <c r="H23" s="46" t="str">
         <f>HYPERLINK("https://www.silabs.com/documents/login/miscellaneous/SDS14223-Z-Wave-Command-Class-Control-Specification.pdf","Yes")</f>
@@ -7029,7 +7172,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="24" spans="1:9" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" s="23" customFormat="1" ht="15" customHeight="1">
       <c r="A24" s="25" t="s">
         <v>65</v>
       </c>
@@ -7059,7 +7202,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="25" spans="1:9" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" s="23" customFormat="1" ht="15" customHeight="1">
       <c r="A25" s="25" t="s">
         <v>68</v>
       </c>
@@ -7083,14 +7226,14 @@
         <v>43101</v>
       </c>
       <c r="H25" s="46" t="str">
-        <f t="shared" ref="H25" si="8">HYPERLINK("https://www.silabs.com/documents/login/miscellaneous/SDS14223-Z-Wave-Command-Class-Control-Specification.pdf","Yes")</f>
+        <f t="shared" si="8" ref="H25">HYPERLINK("https://www.silabs.com/documents/login/miscellaneous/SDS14223-Z-Wave-Command-Class-Control-Specification.pdf","Yes")</f>
         <v>Yes</v>
       </c>
       <c r="I25" s="32" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="26" spans="1:9" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" s="23" customFormat="1" ht="15" customHeight="1">
       <c r="A26" s="25" t="s">
         <v>71</v>
       </c>
@@ -7121,7 +7264,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="27" spans="1:9" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" s="23" customFormat="1" ht="15" customHeight="1">
       <c r="A27" s="25" t="s">
         <v>74</v>
       </c>
@@ -7151,7 +7294,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="28" spans="1:9" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" s="23" customFormat="1" ht="15" customHeight="1">
       <c r="A28" s="25" t="s">
         <v>77</v>
       </c>
@@ -7182,7 +7325,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="29" spans="1:9" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" s="23" customFormat="1" ht="15" customHeight="1">
       <c r="A29" s="25" t="s">
         <v>82</v>
       </c>
@@ -7190,7 +7333,7 @@
         <v>80</v>
       </c>
       <c r="C29" s="29" t="str">
-        <f t="shared" ref="C29" si="9">HYPERLINK("https://www.silabs.com/documents/login/miscellaneous/SDS13781-Z-Wave-Application-Command-Class-Specification.pdf","Application")</f>
+        <f t="shared" si="9" ref="C29">HYPERLINK("https://www.silabs.com/documents/login/miscellaneous/SDS13781-Z-Wave-Application-Command-Class-Specification.pdf","Application")</f>
         <v>Application</v>
       </c>
       <c r="D29" s="25" t="s">
@@ -7212,7 +7355,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="30" spans="1:9" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" s="23" customFormat="1" ht="15" customHeight="1">
       <c r="A30" s="25" t="s">
         <v>83</v>
       </c>
@@ -7242,7 +7385,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="31" spans="1:9" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" s="23" customFormat="1" ht="15" customHeight="1">
       <c r="A31" s="25" t="s">
         <v>86</v>
       </c>
@@ -7266,14 +7409,14 @@
         <v>43556</v>
       </c>
       <c r="H31" s="46" t="str">
-        <f t="shared" ref="H31" si="10">HYPERLINK("https://www.silabs.com/documents/login/miscellaneous/SDS14223-Z-Wave-Command-Class-Control-Specification.pdf","Yes")</f>
+        <f t="shared" si="10" ref="H31">HYPERLINK("https://www.silabs.com/documents/login/miscellaneous/SDS14223-Z-Wave-Command-Class-Control-Specification.pdf","Yes")</f>
         <v>Yes</v>
       </c>
       <c r="I31" s="32" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="32" spans="1:9" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" s="23" customFormat="1" ht="15" customHeight="1">
       <c r="A32" s="25" t="s">
         <v>89</v>
       </c>
@@ -7281,7 +7424,7 @@
         <v>90</v>
       </c>
       <c r="C32" s="29" t="str">
-        <f t="shared" ref="C32" si="11">HYPERLINK("https://www.silabs.com/documents/login/miscellaneous/SDS13781-Z-Wave-Application-Command-Class-Specification.pdf","Application")</f>
+        <f t="shared" si="11" ref="C32">HYPERLINK("https://www.silabs.com/documents/login/miscellaneous/SDS13781-Z-Wave-Application-Command-Class-Specification.pdf","Application")</f>
         <v>Application</v>
       </c>
       <c r="D32" s="25" t="s">
@@ -7304,7 +7447,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="33" spans="1:9" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" s="23" customFormat="1" ht="15" customHeight="1">
       <c r="A33" s="25" t="s">
         <v>92</v>
       </c>
@@ -7334,7 +7477,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="34" spans="1:9" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" s="23" customFormat="1" ht="15" customHeight="1">
       <c r="A34" s="25" t="s">
         <v>95</v>
       </c>
@@ -7364,7 +7507,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="35" spans="1:9" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" s="23" customFormat="1" ht="15" customHeight="1">
       <c r="A35" s="25" t="s">
         <v>342</v>
       </c>
@@ -7388,14 +7531,14 @@
         <v>373</v>
       </c>
       <c r="H35" s="46" t="str">
-        <f t="shared" ref="H35" si="12">HYPERLINK("https://www.silabs.com/documents/login/miscellaneous/SDS14223-Z-Wave-Command-Class-Control-Specification.pdf","Yes")</f>
+        <f t="shared" si="12" ref="H35">HYPERLINK("https://www.silabs.com/documents/login/miscellaneous/SDS14223-Z-Wave-Command-Class-Control-Specification.pdf","Yes")</f>
         <v>Yes</v>
       </c>
       <c r="I35" s="32" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="36" spans="1:9" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" s="23" customFormat="1" ht="15" customHeight="1">
       <c r="A36" s="25" t="s">
         <v>98</v>
       </c>
@@ -7426,7 +7569,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="37" spans="1:9" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" s="23" customFormat="1" ht="15" customHeight="1">
       <c r="A37" s="47" t="s">
         <v>1730</v>
       </c>
@@ -7454,7 +7597,7 @@
       </c>
       <c r="I37" s="32"/>
     </row>
-    <row r="38" spans="1:9" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" s="23" customFormat="1" ht="15" customHeight="1">
       <c r="A38" s="25" t="s">
         <v>101</v>
       </c>
@@ -7484,7 +7627,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="39" spans="1:9" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" s="23" customFormat="1" ht="15" customHeight="1">
       <c r="A39" s="25" t="s">
         <v>104</v>
       </c>
@@ -7492,7 +7635,7 @@
         <v>105</v>
       </c>
       <c r="C39" s="30" t="str">
-        <f t="shared" ref="C39" si="13">HYPERLINK("https://www.silabs.com/documents/login/miscellaneous/SDS13782-Z-Wave-Management-Command-Class-Specification.pdf","Management")</f>
+        <f t="shared" si="13" ref="C39">HYPERLINK("https://www.silabs.com/documents/login/miscellaneous/SDS13782-Z-Wave-Management-Command-Class-Specification.pdf","Management")</f>
         <v>Management</v>
       </c>
       <c r="D39" s="25" t="s">
@@ -7514,7 +7657,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="40" spans="1:9" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" s="23" customFormat="1" ht="15" customHeight="1">
       <c r="A40" s="25" t="s">
         <v>107</v>
       </c>
@@ -7544,7 +7687,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="41" spans="1:9" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" s="23" customFormat="1" ht="15" customHeight="1">
       <c r="A41" s="25" t="s">
         <v>110</v>
       </c>
@@ -7552,7 +7695,7 @@
         <v>111</v>
       </c>
       <c r="C41" s="29" t="str">
-        <f t="shared" ref="C41" si="14">HYPERLINK("https://www.silabs.com/documents/login/miscellaneous/SDS13781-Z-Wave-Application-Command-Class-Specification.pdf","Application")</f>
+        <f t="shared" si="14" ref="C41">HYPERLINK("https://www.silabs.com/documents/login/miscellaneous/SDS13781-Z-Wave-Application-Command-Class-Specification.pdf","Application")</f>
         <v>Application</v>
       </c>
       <c r="D41" s="25" t="s">
@@ -7574,7 +7717,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="42" spans="1:9" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" s="23" customFormat="1" ht="15" customHeight="1">
       <c r="A42" s="25" t="s">
         <v>113</v>
       </c>
@@ -7604,7 +7747,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="43" spans="1:9" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" s="23" customFormat="1" ht="15" customHeight="1">
       <c r="A43" s="25" t="s">
         <v>117</v>
       </c>
@@ -7634,7 +7777,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="44" spans="1:9" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" s="23" customFormat="1" ht="15" customHeight="1">
       <c r="A44" s="25" t="s">
         <v>118</v>
       </c>
@@ -7664,7 +7807,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="45" spans="1:9" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" s="23" customFormat="1" ht="15" customHeight="1">
       <c r="A45" s="25" t="s">
         <v>120</v>
       </c>
@@ -7694,7 +7837,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="46" spans="1:9" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" s="23" customFormat="1" ht="15" customHeight="1">
       <c r="A46" s="26" t="s">
         <v>325</v>
       </c>
@@ -7724,7 +7867,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="47" spans="1:9" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" s="23" customFormat="1" ht="15" customHeight="1">
       <c r="A47" s="25" t="s">
         <v>122</v>
       </c>
@@ -7732,7 +7875,7 @@
         <v>123</v>
       </c>
       <c r="C47" s="30" t="str">
-        <f t="shared" ref="C47" si="15">HYPERLINK("https://www.silabs.com/documents/login/miscellaneous/SDS13782-Z-Wave-Management-Command-Class-Specification.pdf","Management")</f>
+        <f t="shared" si="15" ref="C47">HYPERLINK("https://www.silabs.com/documents/login/miscellaneous/SDS13782-Z-Wave-Management-Command-Class-Specification.pdf","Management")</f>
         <v>Management</v>
       </c>
       <c r="D47" s="25" t="s">
@@ -7755,7 +7898,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="48" spans="1:9" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" s="23" customFormat="1" ht="15" customHeight="1">
       <c r="A48" s="25" t="s">
         <v>352</v>
       </c>
@@ -7785,7 +7928,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="49" spans="1:9" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" s="23" customFormat="1" ht="15" customHeight="1">
       <c r="A49" s="25" t="s">
         <v>125</v>
       </c>
@@ -7815,7 +7958,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="50" spans="1:9" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" s="23" customFormat="1" ht="15" customHeight="1">
       <c r="A50" s="25" t="s">
         <v>1655</v>
       </c>
@@ -7823,7 +7966,7 @@
         <v>1656</v>
       </c>
       <c r="C50" s="29" t="str">
-        <f t="shared" ref="C50" si="16">HYPERLINK("https://www.silabs.com/documents/login/miscellaneous/SDS13781-Z-Wave-Application-Command-Class-Specification.pdf","Application")</f>
+        <f t="shared" si="16" ref="C50">HYPERLINK("https://www.silabs.com/documents/login/miscellaneous/SDS13781-Z-Wave-Application-Command-Class-Specification.pdf","Application")</f>
         <v>Application</v>
       </c>
       <c r="D50" s="25" t="s">
@@ -7846,7 +7989,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="51" spans="1:9" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" s="23" customFormat="1" ht="15" customHeight="1">
       <c r="A51" s="25" t="s">
         <v>128</v>
       </c>
@@ -7876,7 +8019,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="52" spans="1:9" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" s="23" customFormat="1" ht="15" customHeight="1">
       <c r="A52" s="25" t="s">
         <v>130</v>
       </c>
@@ -7906,7 +8049,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="53" spans="1:9" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" s="23" customFormat="1" ht="15" customHeight="1">
       <c r="A53" s="25" t="s">
         <v>133</v>
       </c>
@@ -7936,7 +8079,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="54" spans="1:9" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" s="23" customFormat="1" ht="15" customHeight="1">
       <c r="A54" s="25" t="s">
         <v>369</v>
       </c>
@@ -7966,7 +8109,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="55" spans="1:9" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" s="23" customFormat="1" ht="15" customHeight="1">
       <c r="A55" s="25" t="s">
         <v>136</v>
       </c>
@@ -7996,7 +8139,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="56" spans="1:9" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" s="23" customFormat="1" ht="28.5">
       <c r="A56" s="25" t="s">
         <v>139</v>
       </c>
@@ -8026,7 +8169,7 @@
         <v>1624</v>
       </c>
     </row>
-    <row r="57" spans="1:9" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" s="23" customFormat="1" ht="15" customHeight="1">
       <c r="A57" s="25" t="s">
         <v>319</v>
       </c>
@@ -8055,7 +8198,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="58" spans="1:9" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" s="23" customFormat="1" ht="15" customHeight="1">
       <c r="A58" s="25" t="s">
         <v>142</v>
       </c>
@@ -8063,7 +8206,7 @@
         <v>143</v>
       </c>
       <c r="C58" s="29" t="str">
-        <f t="shared" ref="C58" si="17">HYPERLINK("https://www.silabs.com/documents/login/miscellaneous/SDS13781-Z-Wave-Application-Command-Class-Specification.pdf","Application")</f>
+        <f t="shared" si="17" ref="C58">HYPERLINK("https://www.silabs.com/documents/login/miscellaneous/SDS13781-Z-Wave-Application-Command-Class-Specification.pdf","Application")</f>
         <v>Application</v>
       </c>
       <c r="D58" s="25" t="s">
@@ -8076,7 +8219,7 @@
         <v>5</v>
       </c>
       <c r="G58" s="33">
-        <v>43466</v>
+        <v>43739</v>
       </c>
       <c r="H58" s="46" t="str">
         <f>HYPERLINK("https://www.silabs.com/documents/login/miscellaneous/SDS14223-Z-Wave-Command-Class-Control-Specification.pdf","Yes")</f>
@@ -8086,7 +8229,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="59" spans="1:9" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" s="23" customFormat="1" ht="15" customHeight="1">
       <c r="A59" s="25" t="s">
         <v>145</v>
       </c>
@@ -8116,7 +8259,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="60" spans="1:9" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" s="23" customFormat="1" ht="15" customHeight="1">
       <c r="A60" s="25" t="s">
         <v>148</v>
       </c>
@@ -8146,7 +8289,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="61" spans="1:9" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" s="23" customFormat="1" ht="15" customHeight="1">
       <c r="A61" s="25" t="s">
         <v>151</v>
       </c>
@@ -8176,7 +8319,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="62" spans="1:9" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" s="23" customFormat="1" ht="15" customHeight="1">
       <c r="A62" s="25" t="s">
         <v>154</v>
       </c>
@@ -8206,7 +8349,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="63" spans="1:9" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" s="23" customFormat="1" ht="15" customHeight="1">
       <c r="A63" s="25" t="s">
         <v>157</v>
       </c>
@@ -8230,14 +8373,14 @@
         <v>43191</v>
       </c>
       <c r="H63" s="46" t="str">
-        <f t="shared" ref="H63" si="18">HYPERLINK("https://www.silabs.com/documents/login/miscellaneous/SDS14223-Z-Wave-Command-Class-Control-Specification.pdf","Yes")</f>
+        <f t="shared" si="18" ref="H63">HYPERLINK("https://www.silabs.com/documents/login/miscellaneous/SDS14223-Z-Wave-Command-Class-Control-Specification.pdf","Yes")</f>
         <v>Yes</v>
       </c>
       <c r="I63" s="32" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="64" spans="1:9" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" s="23" customFormat="1" ht="15" customHeight="1">
       <c r="A64" s="25" t="s">
         <v>161</v>
       </c>
@@ -8268,7 +8411,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="65" spans="1:9" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" s="23" customFormat="1" ht="15" customHeight="1">
       <c r="A65" s="25" t="s">
         <v>164</v>
       </c>
@@ -8298,7 +8441,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="66" spans="1:9" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" s="23" customFormat="1" ht="15" customHeight="1">
       <c r="A66" s="25" t="s">
         <v>167</v>
       </c>
@@ -8306,7 +8449,7 @@
         <v>168</v>
       </c>
       <c r="C66" s="29" t="str">
-        <f t="shared" ref="C66" si="19">HYPERLINK("https://www.silabs.com/documents/login/miscellaneous/SDS13781-Z-Wave-Application-Command-Class-Specification.pdf","Application")</f>
+        <f t="shared" si="19" ref="C66">HYPERLINK("https://www.silabs.com/documents/login/miscellaneous/SDS13781-Z-Wave-Application-Command-Class-Specification.pdf","Application")</f>
         <v>Application</v>
       </c>
       <c r="D66" s="25" t="s">
@@ -8329,7 +8472,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="67" spans="1:9" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" s="23" customFormat="1" ht="15" customHeight="1">
       <c r="A67" s="25" t="s">
         <v>170</v>
       </c>
@@ -8359,7 +8502,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="68" spans="1:9" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" s="23" customFormat="1" ht="15" customHeight="1">
       <c r="A68" s="25" t="s">
         <v>173</v>
       </c>
@@ -8389,7 +8532,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="69" spans="1:9" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" s="23" customFormat="1" ht="15" customHeight="1">
       <c r="A69" s="26" t="s">
         <v>179</v>
       </c>
@@ -8397,7 +8540,7 @@
         <v>180</v>
       </c>
       <c r="C69" s="31" t="str">
-        <f t="shared" ref="C69" si="20">HYPERLINK("https://www.silabs.com/documents/login/miscellaneous/SDS13784-Z-Wave-Network-Protocol-Command-Class-Specification.pdf","Network-Protocol")</f>
+        <f t="shared" si="20" ref="C69">HYPERLINK("https://www.silabs.com/documents/login/miscellaneous/SDS13784-Z-Wave-Network-Protocol-Command-Class-Specification.pdf","Network-Protocol")</f>
         <v>Network-Protocol</v>
       </c>
       <c r="D69" s="26" t="s">
@@ -8419,7 +8562,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="70" spans="1:9" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" s="23" customFormat="1" ht="15" customHeight="1">
       <c r="A70" s="26" t="s">
         <v>182</v>
       </c>
@@ -8449,7 +8592,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="71" spans="1:9" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" s="23" customFormat="1" ht="15" customHeight="1">
       <c r="A71" s="26" t="s">
         <v>188</v>
       </c>
@@ -8479,7 +8622,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="72" spans="1:9" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" s="23" customFormat="1" ht="15" customHeight="1">
       <c r="A72" s="26" t="s">
         <v>185</v>
       </c>
@@ -8509,7 +8652,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="73" spans="1:9" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" s="23" customFormat="1" ht="15" customHeight="1">
       <c r="A73" s="26" t="s">
         <v>176</v>
       </c>
@@ -8539,7 +8682,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="74" spans="1:9" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" s="23" customFormat="1" ht="15" customHeight="1">
       <c r="A74" s="25" t="s">
         <v>191</v>
       </c>
@@ -8569,7 +8712,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="75" spans="1:9" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" s="23" customFormat="1" ht="15" customHeight="1">
       <c r="A75" s="25" t="s">
         <v>194</v>
       </c>
@@ -8599,7 +8742,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="76" spans="1:9" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" s="23" customFormat="1" ht="15" customHeight="1">
       <c r="A76" s="25" t="s">
         <v>378</v>
       </c>
@@ -8629,7 +8772,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="77" spans="1:9" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" s="23" customFormat="1" ht="15" customHeight="1">
       <c r="A77" s="25" t="s">
         <v>197</v>
       </c>
@@ -8660,7 +8803,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="78" spans="1:9" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" s="23" customFormat="1" ht="15" customHeight="1">
       <c r="A78" s="25" t="s">
         <v>199</v>
       </c>
@@ -8690,7 +8833,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="79" spans="1:9" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" s="23" customFormat="1" ht="15" customHeight="1">
       <c r="A79" s="25" t="s">
         <v>202</v>
       </c>
@@ -8698,7 +8841,7 @@
         <v>203</v>
       </c>
       <c r="C79" s="29" t="str">
-        <f t="shared" ref="C79" si="21">HYPERLINK("https://www.silabs.com/documents/login/miscellaneous/SDS13781-Z-Wave-Application-Command-Class-Specification.pdf","Application")</f>
+        <f t="shared" si="21" ref="C79">HYPERLINK("https://www.silabs.com/documents/login/miscellaneous/SDS13781-Z-Wave-Application-Command-Class-Specification.pdf","Application")</f>
         <v>Application</v>
       </c>
       <c r="D79" s="25" t="s">
@@ -8720,7 +8863,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="80" spans="1:9" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" s="23" customFormat="1" ht="15" customHeight="1">
       <c r="A80" s="25" t="s">
         <v>205</v>
       </c>
@@ -8728,7 +8871,7 @@
         <v>206</v>
       </c>
       <c r="C80" s="29" t="str">
-        <f t="shared" ref="C80" si="22">HYPERLINK("https://www.silabs.com/documents/login/miscellaneous/SDS13781-Z-Wave-Application-Command-Class-Specification.pdf","Application")</f>
+        <f t="shared" si="22" ref="C80">HYPERLINK("https://www.silabs.com/documents/login/miscellaneous/SDS13781-Z-Wave-Application-Command-Class-Specification.pdf","Application")</f>
         <v>Application</v>
       </c>
       <c r="D80" s="25" t="s">
@@ -8750,7 +8893,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="81" spans="1:9" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" s="23" customFormat="1" ht="15" customHeight="1">
       <c r="A81" s="25" t="s">
         <v>208</v>
       </c>
@@ -8780,7 +8923,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="82" spans="1:9" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" s="23" customFormat="1" ht="15" customHeight="1">
       <c r="A82" s="25" t="s">
         <v>211</v>
       </c>
@@ -8810,7 +8953,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="83" spans="1:9" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" s="23" customFormat="1" ht="15" customHeight="1">
       <c r="A83" s="25" t="s">
         <v>214</v>
       </c>
@@ -8840,7 +8983,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="84" spans="1:9" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" s="23" customFormat="1" ht="15" customHeight="1">
       <c r="A84" s="25" t="s">
         <v>217</v>
       </c>
@@ -8870,7 +9013,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="85" spans="1:9" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" s="23" customFormat="1" ht="15" customHeight="1">
       <c r="A85" s="25" t="s">
         <v>220</v>
       </c>
@@ -8900,7 +9043,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="86" spans="1:9" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" s="23" customFormat="1" ht="15" customHeight="1">
       <c r="A86" s="25" t="s">
         <v>223</v>
       </c>
@@ -8908,7 +9051,7 @@
         <v>224</v>
       </c>
       <c r="C86" s="30" t="str">
-        <f t="shared" ref="C86" si="23">HYPERLINK("https://www.silabs.com/documents/login/miscellaneous/SDS13782-Z-Wave-Management-Command-Class-Specification.pdf","Management")</f>
+        <f t="shared" si="23" ref="C86">HYPERLINK("https://www.silabs.com/documents/login/miscellaneous/SDS13782-Z-Wave-Management-Command-Class-Specification.pdf","Management")</f>
         <v>Management</v>
       </c>
       <c r="D86" s="25" t="s">
@@ -8930,7 +9073,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="87" spans="1:9" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" s="23" customFormat="1" ht="15" customHeight="1">
       <c r="A87" s="25" t="s">
         <v>226</v>
       </c>
@@ -8960,7 +9103,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="88" spans="1:9" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" s="23" customFormat="1" ht="15" customHeight="1">
       <c r="A88" s="25" t="s">
         <v>229</v>
       </c>
@@ -8968,7 +9111,7 @@
         <v>230</v>
       </c>
       <c r="C88" s="29" t="str">
-        <f t="shared" ref="C88" si="24">HYPERLINK("https://www.silabs.com/documents/login/miscellaneous/SDS13781-Z-Wave-Application-Command-Class-Specification.pdf","Application")</f>
+        <f t="shared" si="24" ref="C88">HYPERLINK("https://www.silabs.com/documents/login/miscellaneous/SDS13781-Z-Wave-Application-Command-Class-Specification.pdf","Application")</f>
         <v>Application</v>
       </c>
       <c r="D88" s="25" t="s">
@@ -8990,7 +9133,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="89" spans="1:9" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" s="23" customFormat="1" ht="15" customHeight="1">
       <c r="A89" s="25" t="s">
         <v>232</v>
       </c>
@@ -8998,7 +9141,7 @@
         <v>233</v>
       </c>
       <c r="C89" s="29" t="str">
-        <f t="shared" ref="C89" si="25">HYPERLINK("https://www.silabs.com/documents/login/miscellaneous/SDS13781-Z-Wave-Application-Command-Class-Specification.pdf","Application")</f>
+        <f t="shared" si="25" ref="C89">HYPERLINK("https://www.silabs.com/documents/login/miscellaneous/SDS13781-Z-Wave-Application-Command-Class-Specification.pdf","Application")</f>
         <v>Application</v>
       </c>
       <c r="D89" s="25" t="s">
@@ -9020,7 +9163,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="90" spans="1:9" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" s="23" customFormat="1" ht="15" customHeight="1">
       <c r="A90" s="25" t="s">
         <v>235</v>
       </c>
@@ -9050,7 +9193,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="91" spans="1:9" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" s="23" customFormat="1" ht="15" customHeight="1">
       <c r="A91" s="25" t="s">
         <v>238</v>
       </c>
@@ -9080,7 +9223,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="92" spans="1:9" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" s="23" customFormat="1" ht="15" customHeight="1">
       <c r="A92" s="25" t="s">
         <v>241</v>
       </c>
@@ -9110,7 +9253,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="93" spans="1:9" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" s="23" customFormat="1" ht="15" customHeight="1">
       <c r="A93" s="25" t="s">
         <v>244</v>
       </c>
@@ -9140,7 +9283,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="94" spans="1:9" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" s="23" customFormat="1" ht="15" customHeight="1">
       <c r="A94" s="25" t="s">
         <v>247</v>
       </c>
@@ -9170,7 +9313,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="95" spans="1:9" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" s="23" customFormat="1" ht="15" customHeight="1">
       <c r="A95" s="25" t="s">
         <v>371</v>
       </c>
@@ -9178,7 +9321,7 @@
         <v>250</v>
       </c>
       <c r="C95" s="30" t="str">
-        <f t="shared" ref="C95" si="26">HYPERLINK("https://www.silabs.com/documents/login/miscellaneous/SDS13783-Z-Wave-Transport-Encapsulation-Command-Class-Specification.pdf","Transport-Encapsulation")</f>
+        <f t="shared" si="26" ref="C95">HYPERLINK("https://www.silabs.com/documents/login/miscellaneous/SDS13783-Z-Wave-Transport-Encapsulation-Command-Class-Specification.pdf","Transport-Encapsulation")</f>
         <v>Transport-Encapsulation</v>
       </c>
       <c r="D95" s="25" t="s">
@@ -9194,14 +9337,14 @@
         <v>43191</v>
       </c>
       <c r="H95" s="46" t="str">
-        <f t="shared" ref="H95" si="27">HYPERLINK("https://www.silabs.com/documents/login/miscellaneous/SDS14223-Z-Wave-Command-Class-Control-Specification.pdf","Yes")</f>
+        <f t="shared" si="27" ref="H95">HYPERLINK("https://www.silabs.com/documents/login/miscellaneous/SDS14223-Z-Wave-Command-Class-Control-Specification.pdf","Yes")</f>
         <v>Yes</v>
       </c>
       <c r="I95" s="32" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="96" spans="1:9" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" s="23" customFormat="1" ht="15" customHeight="1">
       <c r="A96" s="26" t="s">
         <v>323</v>
       </c>
@@ -9222,7 +9365,7 @@
         <v>1</v>
       </c>
       <c r="G96" s="48">
-        <v>43556</v>
+        <v>43739</v>
       </c>
       <c r="H96" s="46" t="str">
         <f>HYPERLINK("https://www.silabs.com/documents/login/miscellaneous/SDS14223-Z-Wave-Command-Class-Control-Specification.pdf","Yes")</f>
@@ -9232,7 +9375,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="97" spans="1:9" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" s="23" customFormat="1" ht="15" customHeight="1">
       <c r="A97" s="26" t="s">
         <v>357</v>
       </c>
@@ -9261,7 +9404,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="98" spans="1:9" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" s="23" customFormat="1" ht="15" customHeight="1">
       <c r="A98" s="25" t="s">
         <v>252</v>
       </c>
@@ -9269,7 +9412,7 @@
         <v>253</v>
       </c>
       <c r="C98" s="29" t="str">
-        <f t="shared" ref="C98" si="28">HYPERLINK("https://www.silabs.com/documents/login/miscellaneous/SDS13781-Z-Wave-Application-Command-Class-Specification.pdf","Application")</f>
+        <f t="shared" si="28" ref="C98">HYPERLINK("https://www.silabs.com/documents/login/miscellaneous/SDS13781-Z-Wave-Application-Command-Class-Specification.pdf","Application")</f>
         <v>Application</v>
       </c>
       <c r="D98" s="25" t="s">
@@ -9291,7 +9434,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="99" spans="1:9" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" s="23" customFormat="1" ht="15" customHeight="1">
       <c r="A99" s="25" t="s">
         <v>255</v>
       </c>
@@ -9315,14 +9458,14 @@
         <v>43009</v>
       </c>
       <c r="H99" s="46" t="str">
-        <f t="shared" ref="H99" si="29">HYPERLINK("https://www.silabs.com/documents/login/miscellaneous/SDS14223-Z-Wave-Command-Class-Control-Specification.pdf","Yes")</f>
+        <f t="shared" si="29" ref="H99">HYPERLINK("https://www.silabs.com/documents/login/miscellaneous/SDS14223-Z-Wave-Command-Class-Control-Specification.pdf","Yes")</f>
         <v>Yes</v>
       </c>
       <c r="I99" s="32" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="100" spans="1:9" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" s="23" customFormat="1" ht="15" customHeight="1">
       <c r="A100" s="25" t="s">
         <v>381</v>
       </c>
@@ -9351,7 +9494,7 @@
       </c>
       <c r="I100" s="32"/>
     </row>
-    <row r="101" spans="1:9" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" s="23" customFormat="1" ht="15" customHeight="1">
       <c r="A101" s="26" t="s">
         <v>370</v>
       </c>
@@ -9382,7 +9525,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="102" spans="1:9" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" s="23" customFormat="1" ht="15" customHeight="1">
       <c r="A102" s="25" t="s">
         <v>258</v>
       </c>
@@ -9390,7 +9533,7 @@
         <v>259</v>
       </c>
       <c r="C102" s="29" t="str">
-        <f t="shared" ref="C102" si="30">HYPERLINK("https://www.silabs.com/documents/login/miscellaneous/SDS13781-Z-Wave-Application-Command-Class-Specification.pdf","Application")</f>
+        <f t="shared" si="30" ref="C102">HYPERLINK("https://www.silabs.com/documents/login/miscellaneous/SDS13781-Z-Wave-Application-Command-Class-Specification.pdf","Application")</f>
         <v>Application</v>
       </c>
       <c r="D102" s="25" t="s">
@@ -9412,7 +9555,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="103" spans="1:9" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" s="23" customFormat="1" ht="15" customHeight="1">
       <c r="A103" s="25" t="s">
         <v>261</v>
       </c>
@@ -9420,7 +9563,7 @@
         <v>262</v>
       </c>
       <c r="C103" s="29" t="str">
-        <f t="shared" ref="C103" si="31">HYPERLINK("https://www.silabs.com/documents/login/miscellaneous/SDS13781-Z-Wave-Application-Command-Class-Specification.pdf","Application")</f>
+        <f t="shared" si="31" ref="C103">HYPERLINK("https://www.silabs.com/documents/login/miscellaneous/SDS13781-Z-Wave-Application-Command-Class-Specification.pdf","Application")</f>
         <v>Application</v>
       </c>
       <c r="D103" s="25" t="s">
@@ -9442,7 +9585,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="104" spans="1:9" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" s="23" customFormat="1" ht="15" customHeight="1">
       <c r="A104" s="25" t="s">
         <v>264</v>
       </c>
@@ -9450,7 +9593,7 @@
         <v>265</v>
       </c>
       <c r="C104" s="29" t="str">
-        <f t="shared" ref="C104" si="32">HYPERLINK("https://www.silabs.com/documents/login/miscellaneous/SDS13781-Z-Wave-Application-Command-Class-Specification.pdf","Application")</f>
+        <f t="shared" si="32" ref="C104">HYPERLINK("https://www.silabs.com/documents/login/miscellaneous/SDS13781-Z-Wave-Application-Command-Class-Specification.pdf","Application")</f>
         <v>Application</v>
       </c>
       <c r="D104" s="25" t="s">
@@ -9472,7 +9615,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="105" spans="1:9" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" s="23" customFormat="1" ht="15" customHeight="1">
       <c r="A105" s="25" t="s">
         <v>267</v>
       </c>
@@ -9502,7 +9645,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="106" spans="1:9" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" s="23" customFormat="1" ht="15" customHeight="1">
       <c r="A106" s="25" t="s">
         <v>270</v>
       </c>
@@ -9533,7 +9676,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="107" spans="1:9" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" s="23" customFormat="1" ht="15" customHeight="1">
       <c r="A107" s="25" t="s">
         <v>273</v>
       </c>
@@ -9563,7 +9706,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="108" spans="1:9" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" s="23" customFormat="1" ht="15" customHeight="1">
       <c r="A108" s="25" t="s">
         <v>276</v>
       </c>
@@ -9587,14 +9730,14 @@
         <v>373</v>
       </c>
       <c r="H108" s="46" t="str">
-        <f t="shared" ref="H108" si="33">HYPERLINK("https://www.silabs.com/documents/login/miscellaneous/SDS14223-Z-Wave-Command-Class-Control-Specification.pdf","Yes")</f>
+        <f t="shared" si="33" ref="H108">HYPERLINK("https://www.silabs.com/documents/login/miscellaneous/SDS14223-Z-Wave-Command-Class-Control-Specification.pdf","Yes")</f>
         <v>Yes</v>
       </c>
       <c r="I108" s="32" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="109" spans="1:9" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" s="23" customFormat="1" ht="15" customHeight="1">
       <c r="A109" s="25" t="s">
         <v>324</v>
       </c>
@@ -9625,7 +9768,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="110" spans="1:9" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" s="23" customFormat="1" ht="15" customHeight="1">
       <c r="A110" s="25" t="s">
         <v>281</v>
       </c>
@@ -9633,7 +9776,7 @@
         <v>282</v>
       </c>
       <c r="C110" s="30" t="str">
-        <f t="shared" ref="C110" si="34">HYPERLINK("https://www.silabs.com/documents/login/miscellaneous/SDS13782-Z-Wave-Management-Command-Class-Specification.pdf","Management")</f>
+        <f t="shared" si="34" ref="C110">HYPERLINK("https://www.silabs.com/documents/login/miscellaneous/SDS13782-Z-Wave-Management-Command-Class-Specification.pdf","Management")</f>
         <v>Management</v>
       </c>
       <c r="D110" s="25" t="s">
@@ -9655,7 +9798,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="111" spans="1:9" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" s="23" customFormat="1" ht="15" customHeight="1">
       <c r="A111" s="25" t="s">
         <v>284</v>
       </c>
@@ -9685,7 +9828,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="112" spans="1:9" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" s="23" customFormat="1" ht="15" customHeight="1">
       <c r="A112" s="25" t="s">
         <v>287</v>
       </c>
@@ -9715,7 +9858,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="113" spans="1:9" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" s="23" customFormat="1" ht="15" customHeight="1">
       <c r="A113" s="25" t="s">
         <v>290</v>
       </c>
@@ -9736,17 +9879,17 @@
         <v>2</v>
       </c>
       <c r="G113" s="33">
-        <v>43556</v>
+        <v>43739</v>
       </c>
       <c r="H113" s="46" t="str">
-        <f t="shared" ref="H113" si="35">HYPERLINK("https://www.silabs.com/documents/login/miscellaneous/SDS14223-Z-Wave-Command-Class-Control-Specification.pdf","Yes")</f>
+        <f t="shared" si="35" ref="H113">HYPERLINK("https://www.silabs.com/documents/login/miscellaneous/SDS14223-Z-Wave-Command-Class-Control-Specification.pdf","Yes")</f>
         <v>Yes</v>
       </c>
       <c r="I113" s="32" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="114" spans="1:9" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" s="23" customFormat="1" ht="15" customHeight="1">
       <c r="A114" s="25" t="s">
         <v>293</v>
       </c>
@@ -9754,7 +9897,7 @@
         <v>294</v>
       </c>
       <c r="C114" s="30" t="str">
-        <f t="shared" ref="C114" si="36">HYPERLINK("https://www.silabs.com/documents/login/miscellaneous/SDS13782-Z-Wave-Management-Command-Class-Specification.pdf","Management")</f>
+        <f t="shared" si="36" ref="C114">HYPERLINK("https://www.silabs.com/documents/login/miscellaneous/SDS13782-Z-Wave-Management-Command-Class-Specification.pdf","Management")</f>
         <v>Management</v>
       </c>
       <c r="D114" s="25" t="s">
@@ -9767,7 +9910,7 @@
         <v>3</v>
       </c>
       <c r="G114" s="33">
-        <v>43101</v>
+        <v>43739</v>
       </c>
       <c r="H114" s="46" t="str">
         <f>HYPERLINK("https://www.silabs.com/documents/login/miscellaneous/SDS14223-Z-Wave-Command-Class-Control-Specification.pdf","Yes")</f>
@@ -9777,7 +9920,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="115" spans="1:9" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" s="23" customFormat="1" ht="15" customHeight="1">
       <c r="A115" s="25" t="s">
         <v>296</v>
       </c>
@@ -9808,7 +9951,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="116" spans="1:9" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" s="23" customFormat="1" ht="15" customHeight="1">
       <c r="A116" s="25" t="s">
         <v>299</v>
       </c>
@@ -9829,7 +9972,7 @@
         <v>1</v>
       </c>
       <c r="G116" s="33">
-        <v>43647</v>
+        <v>43739</v>
       </c>
       <c r="H116" s="46" t="str">
         <f>HYPERLINK("https://www.silabs.com/documents/login/miscellaneous/SDS14223-Z-Wave-Command-Class-Control-Specification.pdf","Yes")</f>
@@ -9839,7 +9982,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="117" spans="1:9" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" s="23" customFormat="1" ht="15" customHeight="1">
       <c r="A117" s="25" t="s">
         <v>301</v>
       </c>
@@ -9847,7 +9990,7 @@
         <v>302</v>
       </c>
       <c r="C117" s="31" t="str">
-        <f t="shared" ref="C117" si="37">HYPERLINK("https://www.silabs.com/documents/login/miscellaneous/SDS13784-Z-Wave-Network-Protocol-Command-Class-Specification.pdf","Network-Protocol")</f>
+        <f t="shared" si="37" ref="C117">HYPERLINK("https://www.silabs.com/documents/login/miscellaneous/SDS13784-Z-Wave-Network-Protocol-Command-Class-Specification.pdf","Network-Protocol")</f>
         <v>Network-Protocol</v>
       </c>
       <c r="D117" s="25" t="s">
@@ -9869,7 +10012,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="118" spans="1:9" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" s="23" customFormat="1" ht="15" customHeight="1">
       <c r="A118" s="25" t="s">
         <v>351</v>
       </c>
@@ -9899,7 +10042,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="119" spans="1:9" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" s="23" customFormat="1" ht="15" customHeight="1">
       <c r="A119" s="25" t="s">
         <v>304</v>
       </c>
@@ -9929,7 +10072,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="120" spans="1:9" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" s="23" customFormat="1" ht="15" customHeight="1">
       <c r="A120" s="25" t="s">
         <v>307</v>
       </c>
@@ -9959,7 +10102,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="121" spans="1:9" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" s="23" customFormat="1" ht="15" customHeight="1">
       <c r="A121" s="25" t="s">
         <v>310</v>
       </c>
@@ -9967,7 +10110,7 @@
         <v>311</v>
       </c>
       <c r="C121" s="31" t="str">
-        <f t="shared" ref="C121" si="38">HYPERLINK("https://www.silabs.com/documents/login/miscellaneous/SDS13784-Z-Wave-Network-Protocol-Command-Class-Specification.pdf","Network-Protocol")</f>
+        <f t="shared" si="38" ref="C121">HYPERLINK("https://www.silabs.com/documents/login/miscellaneous/SDS13784-Z-Wave-Network-Protocol-Command-Class-Specification.pdf","Network-Protocol")</f>
         <v>Network-Protocol</v>
       </c>
       <c r="D121" s="25" t="s">
@@ -9989,7 +10132,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="122" spans="1:9" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" s="23" customFormat="1" ht="15" customHeight="1">
       <c r="A122" s="25" t="s">
         <v>313</v>
       </c>
@@ -10019,7 +10162,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="123" spans="1:9" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" s="23" customFormat="1" ht="15" customHeight="1">
       <c r="A123" s="25" t="s">
         <v>318</v>
       </c>
@@ -10052,32 +10195,33 @@
   </sheetData>
   <autoFilter ref="A1:I123"/>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.23622047244094499" right="0.23622047244094499" top="0.35433070866141703" bottom="0.35433070866141703" header="0.31496062992126" footer="0.31496062992126"/>
-  <pageSetup paperSize="9" scale="34" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.236220472440945" right="0.236220472440945" top="0.354330708661417" bottom="0.354330708661417" header="0.31496062992126" footer="0.31496062992126"/>
+  <pageSetup fitToHeight="0" orientation="portrait" paperSize="9" scale="34" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G651"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="25" workbookViewId="0">
+    <sheetView zoomScaleSheetLayoutView="25" workbookViewId="0" topLeftCell="A1">
       <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="F75" sqref="F75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.86428571428571" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="40.28515625" style="36" customWidth="1"/>
-    <col min="2" max="2" width="57.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="56.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="75.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.2857142857143" style="36" customWidth="1"/>
+    <col min="2" max="2" width="57.7142857142857" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="56.7142857142857" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.57142857142857" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.1428571428571" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.7142857142857" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="75.5714285714286" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="37" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="37" customFormat="1" ht="30" customHeight="1">
       <c r="A1" s="28" t="s">
         <v>387</v>
       </c>
@@ -10100,7 +10244,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="14.25">
       <c r="A2" s="7" t="s">
         <v>3</v>
       </c>
@@ -10123,7 +10267,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="14.25">
       <c r="A3" s="7"/>
       <c r="B3" s="38" t="s">
         <v>392</v>
@@ -10144,7 +10288,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="14.25">
       <c r="A4" s="7"/>
       <c r="B4" s="38" t="s">
         <v>395</v>
@@ -10165,7 +10309,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="14.25">
       <c r="A5" s="7"/>
       <c r="B5" s="38" t="s">
         <v>398</v>
@@ -10186,7 +10330,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="14.25">
       <c r="A6" s="7"/>
       <c r="B6" s="38" t="s">
         <v>401</v>
@@ -10207,7 +10351,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="14.25">
       <c r="A7" s="7" t="s">
         <v>7</v>
       </c>
@@ -10230,7 +10374,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="14.25">
       <c r="A8" s="7"/>
       <c r="B8" s="39" t="s">
         <v>407</v>
@@ -10251,7 +10395,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="14.25">
       <c r="A9" s="7"/>
       <c r="B9" s="39" t="s">
         <v>410</v>
@@ -10272,7 +10416,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="14.25">
       <c r="A10" s="7"/>
       <c r="B10" s="39" t="s">
         <v>413</v>
@@ -10293,7 +10437,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="14.25">
       <c r="A11" s="40" t="s">
         <v>10</v>
       </c>
@@ -10316,7 +10460,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="14.25">
       <c r="A12" s="7" t="s">
         <v>13</v>
       </c>
@@ -10339,7 +10483,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="14.25">
       <c r="A13" s="7"/>
       <c r="B13" s="39" t="s">
         <v>419</v>
@@ -10360,7 +10504,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="14.25">
       <c r="A14" s="7"/>
       <c r="B14" s="39" t="s">
         <v>421</v>
@@ -10381,7 +10525,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="14.25">
       <c r="A15" s="7"/>
       <c r="B15" s="39" t="s">
         <v>423</v>
@@ -10402,7 +10546,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="14.25">
       <c r="A16" s="7"/>
       <c r="B16" s="39" t="s">
         <v>425</v>
@@ -10423,7 +10567,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="14.25">
       <c r="A17" s="7" t="s">
         <v>16</v>
       </c>
@@ -10446,7 +10590,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="14.25">
       <c r="A18" s="7"/>
       <c r="B18" s="39" t="s">
         <v>429</v>
@@ -10467,7 +10611,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="14.25">
       <c r="A19" s="7"/>
       <c r="B19" s="39" t="s">
         <v>431</v>
@@ -10488,7 +10632,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="14.25">
       <c r="A20" s="40" t="s">
         <v>19</v>
       </c>
@@ -10511,7 +10655,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="14.25">
       <c r="A21" s="7" t="s">
         <v>23</v>
       </c>
@@ -10534,7 +10678,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="14.25">
       <c r="A22" s="7"/>
       <c r="B22" s="39" t="s">
         <v>437</v>
@@ -10555,7 +10699,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="14.25">
       <c r="A23" s="7" t="s">
         <v>25</v>
       </c>
@@ -10578,7 +10722,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="14.25">
       <c r="A24" s="7"/>
       <c r="B24" s="39" t="s">
         <v>441</v>
@@ -10599,7 +10743,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="14.25">
       <c r="A25" s="7"/>
       <c r="B25" s="39" t="s">
         <v>443</v>
@@ -10620,7 +10764,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="14.25">
       <c r="A26" s="7"/>
       <c r="B26" s="39" t="s">
         <v>445</v>
@@ -10641,7 +10785,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="14.25">
       <c r="A27" s="7"/>
       <c r="B27" s="39" t="s">
         <v>447</v>
@@ -10662,7 +10806,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="14.25">
       <c r="A28" s="7"/>
       <c r="B28" s="39" t="s">
         <v>449</v>
@@ -10683,7 +10827,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="14.25">
       <c r="A29" s="7"/>
       <c r="B29" s="39" t="s">
         <v>451</v>
@@ -10704,7 +10848,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="14.25">
       <c r="A30" s="7"/>
       <c r="B30" s="39" t="s">
         <v>453</v>
@@ -10725,7 +10869,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="14.25">
       <c r="A31" s="7" t="s">
         <v>28</v>
       </c>
@@ -10748,7 +10892,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="14.25">
       <c r="A32" s="7"/>
       <c r="B32" s="39" t="s">
         <v>457</v>
@@ -10769,7 +10913,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="14.25">
       <c r="A33" s="7"/>
       <c r="B33" s="39" t="s">
         <v>459</v>
@@ -10790,7 +10934,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="14.25">
       <c r="A34" s="7"/>
       <c r="B34" s="39" t="s">
         <v>461</v>
@@ -10811,7 +10955,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="14.25">
       <c r="A35" s="7"/>
       <c r="B35" s="39" t="s">
         <v>463</v>
@@ -10832,7 +10976,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="14.25">
       <c r="A36" s="10" t="s">
         <v>31</v>
       </c>
@@ -10855,7 +10999,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="14.25">
       <c r="A37" s="9"/>
       <c r="B37" s="39" t="s">
         <v>467</v>
@@ -10876,7 +11020,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="14.25">
       <c r="A38" s="9"/>
       <c r="B38" s="39" t="s">
         <v>469</v>
@@ -10897,7 +11041,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="14.25">
       <c r="A39" s="9"/>
       <c r="B39" s="39" t="s">
         <v>471</v>
@@ -10918,7 +11062,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="14.25">
       <c r="A40" s="9"/>
       <c r="B40" s="39" t="s">
         <v>473</v>
@@ -10939,7 +11083,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="14.25">
       <c r="A41" s="8"/>
       <c r="B41" s="39" t="s">
         <v>475</v>
@@ -10960,7 +11104,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="14.25">
       <c r="A42" s="10" t="s">
         <v>1695</v>
       </c>
@@ -10983,7 +11127,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="14.25">
       <c r="A43" s="9"/>
       <c r="B43" s="39" t="s">
         <v>1699</v>
@@ -11004,7 +11148,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" ht="14.25">
       <c r="A44" s="9"/>
       <c r="B44" s="39" t="s">
         <v>1708</v>
@@ -11025,7 +11169,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" ht="14.25">
       <c r="A45" s="9"/>
       <c r="B45" s="39" t="s">
         <v>1709</v>
@@ -11046,7 +11190,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" ht="14.25">
       <c r="A46" s="9"/>
       <c r="B46" s="39" t="s">
         <v>1710</v>
@@ -11067,7 +11211,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" ht="14.25">
       <c r="A47" s="9"/>
       <c r="B47" s="39" t="s">
         <v>1711</v>
@@ -11086,7 +11230,7 @@
       </c>
       <c r="G47" s="39"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" ht="14.25">
       <c r="A48" s="9"/>
       <c r="B48" s="39" t="s">
         <v>1712</v>
@@ -11107,7 +11251,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" ht="14.25">
       <c r="A49" s="9"/>
       <c r="B49" s="39" t="s">
         <v>1713</v>
@@ -11128,7 +11272,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" ht="14.25">
       <c r="A50" s="9"/>
       <c r="B50" s="39" t="s">
         <v>1714</v>
@@ -11149,7 +11293,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" ht="14.25">
       <c r="A51" s="9"/>
       <c r="B51" s="39" t="s">
         <v>1715</v>
@@ -11170,7 +11314,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" ht="14.25">
       <c r="A52" s="10" t="s">
         <v>1716</v>
       </c>
@@ -11193,7 +11337,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" ht="14.25">
       <c r="A53" s="9"/>
       <c r="B53" s="39" t="s">
         <v>1723</v>
@@ -11214,7 +11358,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" ht="14.25">
       <c r="A54" s="9"/>
       <c r="B54" s="39" t="s">
         <v>1724</v>
@@ -11235,7 +11379,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" ht="14.25">
       <c r="A55" s="9"/>
       <c r="B55" s="39" t="s">
         <v>1726</v>
@@ -11256,7 +11400,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" ht="14.25">
       <c r="A56" s="9"/>
       <c r="B56" s="39" t="s">
         <v>1725</v>
@@ -11277,7 +11421,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" ht="14.25">
       <c r="A57" s="7" t="s">
         <v>34</v>
       </c>
@@ -11300,7 +11444,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" ht="14.25">
       <c r="A58" s="7"/>
       <c r="B58" s="39" t="s">
         <v>479</v>
@@ -11321,7 +11465,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" ht="14.25">
       <c r="A59" s="7"/>
       <c r="B59" s="39" t="s">
         <v>481</v>
@@ -11342,7 +11486,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" ht="14.25">
       <c r="A60" s="7"/>
       <c r="B60" s="39" t="s">
         <v>483</v>
@@ -11363,7 +11507,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" ht="14.25">
       <c r="A61" s="7"/>
       <c r="B61" s="39" t="s">
         <v>485</v>
@@ -11384,7 +11528,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" ht="14.25">
       <c r="A62" s="7"/>
       <c r="B62" s="39" t="s">
         <v>487</v>
@@ -11405,7 +11549,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" ht="14.25">
       <c r="A63" s="7"/>
       <c r="B63" s="39" t="s">
         <v>489</v>
@@ -11426,7 +11570,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" ht="14.25">
       <c r="A64" s="7"/>
       <c r="B64" s="39" t="s">
         <v>491</v>
@@ -11447,7 +11591,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" ht="14.25">
       <c r="A65" s="7" t="s">
         <v>37</v>
       </c>
@@ -11470,7 +11614,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" ht="14.25">
       <c r="A66" s="7"/>
       <c r="B66" s="39" t="s">
         <v>495</v>
@@ -11491,7 +11635,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" ht="14.25">
       <c r="A67" s="7"/>
       <c r="B67" s="39" t="s">
         <v>497</v>
@@ -11512,7 +11656,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" ht="14.25">
       <c r="A68" s="7" t="s">
         <v>40</v>
       </c>
@@ -11535,7 +11679,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" ht="14.25">
       <c r="A69" s="7"/>
       <c r="B69" s="39" t="s">
         <v>501</v>
@@ -11556,7 +11700,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" ht="14.25">
       <c r="A70" s="7" t="s">
         <v>43</v>
       </c>
@@ -11579,7 +11723,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" ht="14.25">
       <c r="A71" s="7"/>
       <c r="B71" s="39" t="s">
         <v>505</v>
@@ -11600,7 +11744,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" ht="14.25">
       <c r="A72" s="10" t="s">
         <v>47</v>
       </c>
@@ -11623,7 +11767,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" ht="14.25">
       <c r="A73" s="9"/>
       <c r="B73" s="39" t="s">
         <v>509</v>
@@ -11644,7 +11788,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" ht="14.25">
       <c r="A74" s="9"/>
       <c r="B74" s="39" t="s">
         <v>1752</v>
@@ -11663,7 +11807,7 @@
       </c>
       <c r="G74" s="39"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" ht="14.25">
       <c r="A75" s="8"/>
       <c r="B75" s="39" t="s">
         <v>1750</v>
@@ -11682,7 +11826,7 @@
       </c>
       <c r="G75" s="39"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" ht="14.25">
       <c r="A76" s="7" t="s">
         <v>50</v>
       </c>
@@ -11705,7 +11849,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" ht="14.25">
       <c r="A77" s="7"/>
       <c r="B77" s="39" t="s">
         <v>513</v>
@@ -11726,7 +11870,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" ht="14.25">
       <c r="A78" s="7"/>
       <c r="B78" s="39" t="s">
         <v>515</v>
@@ -11747,7 +11891,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" ht="14.25">
       <c r="A79" s="7"/>
       <c r="B79" s="39" t="s">
         <v>517</v>
@@ -11768,7 +11912,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" ht="14.25">
       <c r="A80" s="7" t="s">
         <v>53</v>
       </c>
@@ -11791,7 +11935,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" ht="14.25">
       <c r="A81" s="7"/>
       <c r="B81" s="39" t="s">
         <v>521</v>
@@ -11812,7 +11956,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" ht="14.25">
       <c r="A82" s="7"/>
       <c r="B82" s="39" t="s">
         <v>523</v>
@@ -11833,7 +11977,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" ht="14.25">
       <c r="A83" s="7" t="s">
         <v>56</v>
       </c>
@@ -11856,7 +12000,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" ht="14.25">
       <c r="A84" s="7"/>
       <c r="B84" s="39" t="s">
         <v>527</v>
@@ -11877,7 +12021,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" ht="14.25">
       <c r="A85" s="7"/>
       <c r="B85" s="39" t="s">
         <v>529</v>
@@ -11898,7 +12042,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" ht="14.25">
       <c r="A86" s="7" t="s">
         <v>59</v>
       </c>
@@ -11921,7 +12065,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" ht="14.25">
       <c r="A87" s="7"/>
       <c r="B87" s="38" t="s">
         <v>533</v>
@@ -11942,7 +12086,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" ht="14.25">
       <c r="A88" s="7"/>
       <c r="B88" s="39" t="s">
         <v>535</v>
@@ -11963,7 +12107,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" ht="14.25">
       <c r="A89" s="7"/>
       <c r="B89" s="39" t="s">
         <v>537</v>
@@ -11984,7 +12128,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" ht="14.25">
       <c r="A90" s="7"/>
       <c r="B90" s="39" t="s">
         <v>539</v>
@@ -12005,7 +12149,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" ht="14.25">
       <c r="A91" s="7"/>
       <c r="B91" s="39" t="s">
         <v>541</v>
@@ -12026,7 +12170,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" ht="14.25">
       <c r="A92" s="7"/>
       <c r="B92" s="39" t="s">
         <v>543</v>
@@ -12047,7 +12191,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" ht="14.25">
       <c r="A93" s="7"/>
       <c r="B93" s="39" t="s">
         <v>545</v>
@@ -12068,7 +12212,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" ht="14.25">
       <c r="A94" s="7" t="s">
         <v>62</v>
       </c>
@@ -12091,7 +12235,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" ht="14.25">
       <c r="A95" s="7"/>
       <c r="B95" s="39" t="s">
         <v>549</v>
@@ -12112,7 +12256,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" ht="14.25">
       <c r="A96" s="7"/>
       <c r="B96" s="39" t="s">
         <v>551</v>
@@ -12133,7 +12277,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" ht="14.25">
       <c r="A97" s="7"/>
       <c r="B97" s="39" t="s">
         <v>553</v>
@@ -12154,7 +12298,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" ht="14.25">
       <c r="A98" s="7"/>
       <c r="B98" s="39" t="s">
         <v>555</v>
@@ -12175,7 +12319,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" ht="14.25">
       <c r="A99" s="7"/>
       <c r="B99" s="39" t="s">
         <v>557</v>
@@ -12196,7 +12340,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" ht="14.25">
       <c r="A100" s="7" t="s">
         <v>65</v>
       </c>
@@ -12219,7 +12363,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" ht="14.25">
       <c r="A101" s="7"/>
       <c r="B101" s="39" t="s">
         <v>561</v>
@@ -12240,7 +12384,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" ht="14.25">
       <c r="A102" s="7"/>
       <c r="B102" s="39" t="s">
         <v>563</v>
@@ -12261,7 +12405,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" ht="14.25">
       <c r="A103" s="7" t="s">
         <v>68</v>
       </c>
@@ -12284,7 +12428,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" ht="14.25">
       <c r="A104" s="7"/>
       <c r="B104" s="39" t="s">
         <v>567</v>
@@ -12305,7 +12449,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" ht="14.25">
       <c r="A105" s="7"/>
       <c r="B105" s="39" t="s">
         <v>569</v>
@@ -12326,7 +12470,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" ht="14.25">
       <c r="A106" s="7"/>
       <c r="B106" s="39" t="s">
         <v>571</v>
@@ -12347,7 +12491,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" ht="14.25">
       <c r="A107" s="7"/>
       <c r="B107" s="39" t="s">
         <v>573</v>
@@ -12368,7 +12512,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" ht="14.25">
       <c r="A108" s="7"/>
       <c r="B108" s="39" t="s">
         <v>575</v>
@@ -12389,7 +12533,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" ht="14.25">
       <c r="A109" s="7"/>
       <c r="B109" s="39" t="s">
         <v>577</v>
@@ -12410,7 +12554,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" ht="14.25">
       <c r="A110" s="10" t="s">
         <v>71</v>
       </c>
@@ -12433,7 +12577,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" ht="14.25">
       <c r="A111" s="9"/>
       <c r="B111" s="39" t="s">
         <v>581</v>
@@ -12454,7 +12598,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" ht="14.25">
       <c r="A112" s="9"/>
       <c r="B112" s="39" t="s">
         <v>583</v>
@@ -12475,7 +12619,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" ht="14.25">
       <c r="A113" s="9"/>
       <c r="B113" s="39" t="s">
         <v>585</v>
@@ -12496,7 +12640,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" ht="14.25">
       <c r="A114" s="9"/>
       <c r="B114" s="39" t="s">
         <v>587</v>
@@ -12517,7 +12661,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" ht="14.25">
       <c r="A115" s="9"/>
       <c r="B115" s="39" t="s">
         <v>589</v>
@@ -12538,7 +12682,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" ht="14.25">
       <c r="A116" s="9"/>
       <c r="B116" s="39" t="s">
         <v>592</v>
@@ -12559,7 +12703,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" ht="14.25">
       <c r="A117" s="9"/>
       <c r="B117" s="39" t="s">
         <v>595</v>
@@ -12580,7 +12724,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" ht="14.25">
       <c r="A118" s="9"/>
       <c r="B118" s="39" t="s">
         <v>597</v>
@@ -12601,7 +12745,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" ht="14.25">
       <c r="A119" s="9"/>
       <c r="B119" s="39" t="s">
         <v>599</v>
@@ -12622,7 +12766,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" ht="14.25">
       <c r="A120" s="9"/>
       <c r="B120" s="39" t="s">
         <v>602</v>
@@ -12643,7 +12787,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" ht="14.25">
       <c r="A121" s="9"/>
       <c r="B121" s="39" t="s">
         <v>605</v>
@@ -12664,7 +12808,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" ht="14.25">
       <c r="A122" s="8"/>
       <c r="B122" s="39" t="s">
         <v>608</v>
@@ -12685,7 +12829,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" ht="14.25">
       <c r="A123" s="7" t="s">
         <v>74</v>
       </c>
@@ -12708,7 +12852,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" ht="14.25">
       <c r="A124" s="7"/>
       <c r="B124" s="39" t="s">
         <v>612</v>
@@ -12729,7 +12873,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" ht="14.25">
       <c r="A125" s="7"/>
       <c r="B125" s="39" t="s">
         <v>614</v>
@@ -12750,7 +12894,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" ht="14.25">
       <c r="A126" s="7"/>
       <c r="B126" s="39" t="s">
         <v>616</v>
@@ -12771,7 +12915,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" ht="14.25">
       <c r="A127" s="40" t="s">
         <v>77</v>
       </c>
@@ -12794,7 +12938,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" ht="14.25">
       <c r="A128" s="7" t="s">
         <v>82</v>
       </c>
@@ -12817,7 +12961,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" ht="14.25">
       <c r="A129" s="7"/>
       <c r="B129" s="39" t="s">
         <v>622</v>
@@ -12838,7 +12982,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" ht="14.25">
       <c r="A130" s="7"/>
       <c r="B130" s="39" t="s">
         <v>624</v>
@@ -12859,7 +13003,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" ht="14.25">
       <c r="A131" s="7"/>
       <c r="B131" s="39" t="s">
         <v>626</v>
@@ -12880,7 +13024,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" ht="14.25">
       <c r="A132" s="7" t="s">
         <v>83</v>
       </c>
@@ -12903,7 +13047,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" ht="14.25">
       <c r="A133" s="7"/>
       <c r="B133" s="39" t="s">
         <v>630</v>
@@ -12924,7 +13068,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" ht="14.25">
       <c r="A134" s="7"/>
       <c r="B134" s="39" t="s">
         <v>632</v>
@@ -12945,7 +13089,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" ht="14.25">
       <c r="A135" s="7"/>
       <c r="B135" s="39" t="s">
         <v>634</v>
@@ -12966,7 +13110,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" ht="14.25">
       <c r="A136" s="40" t="s">
         <v>86</v>
       </c>
@@ -12989,7 +13133,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" ht="14.25">
       <c r="A137" s="7" t="s">
         <v>89</v>
       </c>
@@ -13012,7 +13156,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" ht="14.25">
       <c r="A138" s="7"/>
       <c r="B138" s="39" t="s">
         <v>640</v>
@@ -13033,7 +13177,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" ht="14.25">
       <c r="A139" s="7"/>
       <c r="B139" s="39" t="s">
         <v>642</v>
@@ -13054,7 +13198,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" ht="14.25">
       <c r="A140" s="7"/>
       <c r="B140" s="39" t="s">
         <v>644</v>
@@ -13075,7 +13219,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" ht="14.25">
       <c r="A141" s="7"/>
       <c r="B141" s="39" t="s">
         <v>646</v>
@@ -13096,7 +13240,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" ht="14.25">
       <c r="A142" s="7"/>
       <c r="B142" s="39" t="s">
         <v>648</v>
@@ -13117,7 +13261,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" ht="14.25">
       <c r="A143" s="7"/>
       <c r="B143" s="39" t="s">
         <v>1620</v>
@@ -13138,7 +13282,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" ht="14.25">
       <c r="A144" s="7"/>
       <c r="B144" s="39" t="s">
         <v>1621</v>
@@ -13159,7 +13303,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" ht="14.25">
       <c r="A145" s="7" t="s">
         <v>92</v>
       </c>
@@ -13182,7 +13326,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" ht="14.25">
       <c r="A146" s="7"/>
       <c r="B146" s="39" t="s">
         <v>652</v>
@@ -13203,7 +13347,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" ht="14.25">
       <c r="A147" s="7"/>
       <c r="B147" s="39" t="s">
         <v>654</v>
@@ -13224,7 +13368,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" ht="14.25">
       <c r="A148" s="7"/>
       <c r="B148" s="39" t="s">
         <v>656</v>
@@ -13245,7 +13389,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" ht="14.25">
       <c r="A149" s="7" t="s">
         <v>95</v>
       </c>
@@ -13268,7 +13412,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" ht="14.25">
       <c r="A150" s="7"/>
       <c r="B150" s="39" t="s">
         <v>660</v>
@@ -13289,7 +13433,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" ht="14.25">
       <c r="A151" s="10" t="s">
         <v>342</v>
       </c>
@@ -13312,7 +13456,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" ht="14.25">
       <c r="A152" s="9"/>
       <c r="B152" s="39" t="s">
         <v>664</v>
@@ -13333,7 +13477,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" ht="14.25">
       <c r="A153" s="9"/>
       <c r="B153" s="39" t="s">
         <v>666</v>
@@ -13354,7 +13498,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" ht="14.25">
       <c r="A154" s="9"/>
       <c r="B154" s="39" t="s">
         <v>668</v>
@@ -13375,7 +13519,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" ht="14.25">
       <c r="A155" s="9"/>
       <c r="B155" s="39" t="s">
         <v>670</v>
@@ -13396,7 +13540,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" ht="14.25">
       <c r="A156" s="9"/>
       <c r="B156" s="39" t="s">
         <v>672</v>
@@ -13417,7 +13561,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" ht="14.25">
       <c r="A157" s="9"/>
       <c r="B157" s="39" t="s">
         <v>674</v>
@@ -13438,7 +13582,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" ht="14.25">
       <c r="A158" s="8"/>
       <c r="B158" s="39" t="s">
         <v>676</v>
@@ -13459,7 +13603,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" ht="14.25">
       <c r="A159" s="7" t="s">
         <v>98</v>
       </c>
@@ -13482,7 +13626,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" ht="14.25">
       <c r="A160" s="7"/>
       <c r="B160" s="39" t="s">
         <v>680</v>
@@ -13503,7 +13647,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" ht="14.25">
       <c r="A161" s="7"/>
       <c r="B161" s="39" t="s">
         <v>682</v>
@@ -13524,7 +13668,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" ht="14.25">
       <c r="A162" s="7"/>
       <c r="B162" s="38" t="s">
         <v>684</v>
@@ -13545,7 +13689,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" ht="14.25">
       <c r="A163" s="7"/>
       <c r="B163" s="39" t="s">
         <v>686</v>
@@ -13566,7 +13710,7 @@
         <v>1606</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" ht="14.25">
       <c r="A164" s="7"/>
       <c r="B164" s="39" t="s">
         <v>688</v>
@@ -13587,7 +13731,7 @@
         <v>1606</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" ht="14.25">
       <c r="A165" s="7"/>
       <c r="B165" s="39" t="s">
         <v>690</v>
@@ -13608,7 +13752,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" ht="14.25">
       <c r="A166" s="7"/>
       <c r="B166" s="39" t="s">
         <v>692</v>
@@ -13629,7 +13773,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" ht="14.25">
       <c r="A167" s="7"/>
       <c r="B167" s="39" t="s">
         <v>694</v>
@@ -13650,7 +13794,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7" ht="14.25">
       <c r="A168" s="7"/>
       <c r="B168" s="39" t="s">
         <v>696</v>
@@ -13671,7 +13815,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" ht="14.25">
       <c r="A169" s="7"/>
       <c r="B169" s="39" t="s">
         <v>698</v>
@@ -13692,7 +13836,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7" ht="14.25">
       <c r="A170" s="10" t="s">
         <v>1730</v>
       </c>
@@ -13713,7 +13857,7 @@
       </c>
       <c r="G170" s="39"/>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" ht="14.25">
       <c r="A171" s="9"/>
       <c r="B171" s="39" t="s">
         <v>1736</v>
@@ -13732,7 +13876,7 @@
       </c>
       <c r="G171" s="39"/>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7" ht="14.25">
       <c r="A172" s="9"/>
       <c r="B172" s="39" t="s">
         <v>1738</v>
@@ -13751,7 +13895,7 @@
       </c>
       <c r="G172" s="39"/>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" ht="14.25">
       <c r="A173" s="9"/>
       <c r="B173" s="39" t="s">
         <v>1740</v>
@@ -13770,7 +13914,7 @@
       </c>
       <c r="G173" s="39"/>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" ht="14.25">
       <c r="A174" s="9"/>
       <c r="B174" s="39" t="s">
         <v>1742</v>
@@ -13789,7 +13933,7 @@
       </c>
       <c r="G174" s="39"/>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7" ht="14.25">
       <c r="A175" s="9"/>
       <c r="B175" s="39" t="s">
         <v>1744</v>
@@ -13808,7 +13952,7 @@
       </c>
       <c r="G175" s="39"/>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7" ht="14.25">
       <c r="A176" s="9"/>
       <c r="B176" s="39" t="s">
         <v>1746</v>
@@ -13827,7 +13971,7 @@
       </c>
       <c r="G176" s="39"/>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7" ht="14.25">
       <c r="A177" s="8"/>
       <c r="B177" s="39" t="s">
         <v>1748</v>
@@ -13846,7 +13990,7 @@
       </c>
       <c r="G177" s="39"/>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7" ht="14.25">
       <c r="A178" s="7" t="s">
         <v>101</v>
       </c>
@@ -13869,7 +14013,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7" ht="14.25">
       <c r="A179" s="7"/>
       <c r="B179" s="39" t="s">
         <v>702</v>
@@ -13890,7 +14034,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7" ht="14.25">
       <c r="A180" s="7"/>
       <c r="B180" s="39" t="s">
         <v>704</v>
@@ -13911,7 +14055,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7" ht="14.25">
       <c r="A181" s="7" t="s">
         <v>104</v>
       </c>
@@ -13934,7 +14078,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7" ht="14.25">
       <c r="A182" s="7"/>
       <c r="B182" s="39" t="s">
         <v>708</v>
@@ -13955,7 +14099,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7" ht="14.25">
       <c r="A183" s="7"/>
       <c r="B183" s="39" t="s">
         <v>710</v>
@@ -13976,7 +14120,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7" ht="14.25">
       <c r="A184" s="40" t="s">
         <v>107</v>
       </c>
@@ -13999,7 +14143,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7" ht="14.25">
       <c r="A185" s="7" t="s">
         <v>110</v>
       </c>
@@ -14022,7 +14166,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7" ht="14.25">
       <c r="A186" s="7"/>
       <c r="B186" s="39" t="s">
         <v>716</v>
@@ -14043,7 +14187,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7" ht="14.25">
       <c r="A187" s="7"/>
       <c r="B187" s="39" t="s">
         <v>718</v>
@@ -14064,7 +14208,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7" ht="14.25">
       <c r="A188" s="7"/>
       <c r="B188" s="39" t="s">
         <v>720</v>
@@ -14085,7 +14229,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7" ht="14.25">
       <c r="A189" s="7" t="s">
         <v>113</v>
       </c>
@@ -14108,7 +14252,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7" ht="14.25">
       <c r="A190" s="7"/>
       <c r="B190" s="39" t="s">
         <v>724</v>
@@ -14129,7 +14273,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7" ht="14.25">
       <c r="A191" s="7"/>
       <c r="B191" s="39" t="s">
         <v>726</v>
@@ -14150,7 +14294,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7" ht="14.25">
       <c r="A192" s="7"/>
       <c r="B192" s="39" t="s">
         <v>728</v>
@@ -14171,7 +14315,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7" ht="14.25">
       <c r="A193" s="7"/>
       <c r="B193" s="39" t="s">
         <v>730</v>
@@ -14192,7 +14336,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7" ht="14.25">
       <c r="A194" s="7"/>
       <c r="B194" s="39" t="s">
         <v>732</v>
@@ -14213,7 +14357,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7" ht="14.25">
       <c r="A195" s="7"/>
       <c r="B195" s="39" t="s">
         <v>734</v>
@@ -14234,7 +14378,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7" ht="14.25">
       <c r="A196" s="7"/>
       <c r="B196" s="39" t="s">
         <v>736</v>
@@ -14255,7 +14399,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7" ht="14.25">
       <c r="A197" s="7"/>
       <c r="B197" s="39" t="s">
         <v>738</v>
@@ -14276,7 +14420,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7" ht="14.25">
       <c r="A198" s="7"/>
       <c r="B198" s="39" t="s">
         <v>740</v>
@@ -14297,7 +14441,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7" ht="14.25">
       <c r="A199" s="7"/>
       <c r="B199" s="39" t="s">
         <v>742</v>
@@ -14318,7 +14462,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7" ht="14.25">
       <c r="A200" s="7" t="s">
         <v>117</v>
       </c>
@@ -14341,7 +14485,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7" ht="14.25">
       <c r="A201" s="7"/>
       <c r="B201" s="39" t="s">
         <v>746</v>
@@ -14362,7 +14506,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:7" ht="14.25">
       <c r="A202" s="7"/>
       <c r="B202" s="39" t="s">
         <v>748</v>
@@ -14383,7 +14527,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:7" ht="14.25">
       <c r="A203" s="7"/>
       <c r="B203" s="39" t="s">
         <v>750</v>
@@ -14404,7 +14548,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:7" ht="14.25">
       <c r="A204" s="7"/>
       <c r="B204" s="39" t="s">
         <v>752</v>
@@ -14425,7 +14569,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:7" ht="14.25">
       <c r="A205" s="7" t="s">
         <v>118</v>
       </c>
@@ -14448,7 +14592,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:7" ht="14.25">
       <c r="A206" s="7"/>
       <c r="B206" s="39" t="s">
         <v>756</v>
@@ -14469,7 +14613,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:7" ht="14.25">
       <c r="A207" s="7" t="s">
         <v>120</v>
       </c>
@@ -14492,7 +14636,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:7" ht="14.25">
       <c r="A208" s="7"/>
       <c r="B208" s="39" t="s">
         <v>760</v>
@@ -14513,7 +14657,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:7" ht="14.25">
       <c r="A209" s="7"/>
       <c r="B209" s="39" t="s">
         <v>762</v>
@@ -14534,7 +14678,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:7" ht="14.25">
       <c r="A210" s="7"/>
       <c r="B210" s="39" t="s">
         <v>764</v>
@@ -14555,7 +14699,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:7" ht="14.25">
       <c r="A211" s="7"/>
       <c r="B211" s="39" t="s">
         <v>766</v>
@@ -14576,7 +14720,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:7" ht="14.25">
       <c r="A212" s="7"/>
       <c r="B212" s="39" t="s">
         <v>768</v>
@@ -14597,7 +14741,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:7" ht="14.25">
       <c r="A213" s="7"/>
       <c r="B213" s="39" t="s">
         <v>770</v>
@@ -14618,7 +14762,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:7" ht="14.25">
       <c r="A214" s="7"/>
       <c r="B214" s="39" t="s">
         <v>772</v>
@@ -14639,7 +14783,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:7" ht="14.25">
       <c r="A215" s="7"/>
       <c r="B215" s="39" t="s">
         <v>774</v>
@@ -14660,7 +14804,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:7" ht="14.25">
       <c r="A216" s="7" t="s">
         <v>325</v>
       </c>
@@ -14683,7 +14827,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:7" ht="14.25">
       <c r="A217" s="7"/>
       <c r="B217" s="38" t="s">
         <v>778</v>
@@ -14704,7 +14848,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:7" ht="14.25">
       <c r="A218" s="7" t="s">
         <v>122</v>
       </c>
@@ -14727,7 +14871,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:7" ht="14.25">
       <c r="A219" s="7"/>
       <c r="B219" s="39" t="s">
         <v>782</v>
@@ -14748,7 +14892,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:7" ht="14.25">
       <c r="A220" s="7"/>
       <c r="B220" s="39" t="s">
         <v>784</v>
@@ -14769,7 +14913,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:7" ht="14.25">
       <c r="A221" s="7" t="s">
         <v>125</v>
       </c>
@@ -14792,7 +14936,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:7" ht="14.25">
       <c r="A222" s="7"/>
       <c r="B222" s="39" t="s">
         <v>788</v>
@@ -14813,7 +14957,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:7" ht="14.25">
       <c r="A223" s="7"/>
       <c r="B223" s="39" t="s">
         <v>790</v>
@@ -14834,7 +14978,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:7" ht="14.25">
       <c r="A224" s="7"/>
       <c r="B224" s="39" t="s">
         <v>792</v>
@@ -14855,7 +14999,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:7" ht="14.25">
       <c r="A225" s="7"/>
       <c r="B225" s="39" t="s">
         <v>794</v>
@@ -14876,7 +15020,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:7" ht="14.25">
       <c r="A226" s="10" t="s">
         <v>1655</v>
       </c>
@@ -14899,7 +15043,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:7" ht="14.25">
       <c r="A227" s="9"/>
       <c r="B227" s="39" t="s">
         <v>1659</v>
@@ -14920,7 +15064,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:7" ht="14.25">
       <c r="A228" s="9"/>
       <c r="B228" s="39" t="s">
         <v>1660</v>
@@ -14941,7 +15085,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:7" ht="14.25">
       <c r="A229" s="9"/>
       <c r="B229" s="39" t="s">
         <v>1662</v>
@@ -14962,7 +15106,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:7" ht="14.25">
       <c r="A230" s="9"/>
       <c r="B230" s="39" t="s">
         <v>1661</v>
@@ -14983,7 +15127,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:7" ht="14.25">
       <c r="A231" s="9"/>
       <c r="B231" s="39" t="s">
         <v>1677</v>
@@ -15004,7 +15148,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:7" ht="14.25">
       <c r="A232" s="9"/>
       <c r="B232" s="39" t="s">
         <v>1663</v>
@@ -15025,7 +15169,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:7" ht="14.25">
       <c r="A233" s="9"/>
       <c r="B233" s="39" t="s">
         <v>1664</v>
@@ -15046,7 +15190,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:7" ht="14.25">
       <c r="A234" s="9"/>
       <c r="B234" s="39" t="s">
         <v>1665</v>
@@ -15067,7 +15211,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:7" ht="14.25">
       <c r="A235" s="9"/>
       <c r="B235" s="39" t="s">
         <v>1666</v>
@@ -15088,7 +15232,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:7" ht="14.25">
       <c r="A236" s="9"/>
       <c r="B236" s="39" t="s">
         <v>1667</v>
@@ -15109,7 +15253,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:7" ht="14.25">
       <c r="A237" s="9"/>
       <c r="B237" s="39" t="s">
         <v>1668</v>
@@ -15130,7 +15274,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:7" ht="14.25">
       <c r="A238" s="9"/>
       <c r="B238" s="39" t="s">
         <v>1669</v>
@@ -15151,7 +15295,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:7" ht="14.25">
       <c r="A239" s="9"/>
       <c r="B239" s="39" t="s">
         <v>1671</v>
@@ -15172,7 +15316,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:7" ht="14.25">
       <c r="A240" s="8"/>
       <c r="B240" s="39" t="s">
         <v>1670</v>
@@ -15193,7 +15337,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:7" ht="14.25">
       <c r="A241" s="7" t="s">
         <v>128</v>
       </c>
@@ -15216,7 +15360,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:7" ht="14.25">
       <c r="A242" s="7"/>
       <c r="B242" s="39" t="s">
         <v>798</v>
@@ -15237,7 +15381,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:7" ht="14.25">
       <c r="A243" s="7"/>
       <c r="B243" s="39" t="s">
         <v>800</v>
@@ -15258,7 +15402,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:7" ht="14.25">
       <c r="A244" s="7"/>
       <c r="B244" s="39" t="s">
         <v>802</v>
@@ -15279,7 +15423,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:7" ht="14.25">
       <c r="A245" s="7"/>
       <c r="B245" s="39" t="s">
         <v>804</v>
@@ -15300,7 +15444,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:7" ht="14.25">
       <c r="A246" s="7"/>
       <c r="B246" s="39" t="s">
         <v>806</v>
@@ -15321,7 +15465,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:7" ht="14.25">
       <c r="A247" s="7"/>
       <c r="B247" s="39" t="s">
         <v>808</v>
@@ -15342,7 +15486,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:7" ht="14.25">
       <c r="A248" s="7"/>
       <c r="B248" s="39" t="s">
         <v>810</v>
@@ -15363,7 +15507,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:7" ht="14.25">
       <c r="A249" s="7"/>
       <c r="B249" s="39" t="s">
         <v>812</v>
@@ -15384,7 +15528,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:7" ht="14.25">
       <c r="A250" s="7"/>
       <c r="B250" s="39" t="s">
         <v>814</v>
@@ -15405,7 +15549,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:7" ht="14.25">
       <c r="A251" s="7"/>
       <c r="B251" s="39" t="s">
         <v>816</v>
@@ -15426,7 +15570,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:7" ht="14.25">
       <c r="A252" s="7"/>
       <c r="B252" s="39" t="s">
         <v>818</v>
@@ -15447,7 +15591,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:7" ht="14.25">
       <c r="A253" s="7"/>
       <c r="B253" s="39" t="s">
         <v>820</v>
@@ -15468,7 +15612,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:7" ht="14.25">
       <c r="A254" s="7"/>
       <c r="B254" s="39" t="s">
         <v>822</v>
@@ -15489,7 +15633,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:7" ht="14.25">
       <c r="A255" s="7"/>
       <c r="B255" s="39" t="s">
         <v>824</v>
@@ -15510,7 +15654,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:7" ht="14.25">
       <c r="A256" s="7"/>
       <c r="B256" s="39" t="s">
         <v>826</v>
@@ -15531,7 +15675,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:7" ht="14.25">
       <c r="A257" s="7"/>
       <c r="B257" s="39" t="s">
         <v>829</v>
@@ -15552,7 +15696,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:7" ht="14.25">
       <c r="A258" s="7"/>
       <c r="B258" s="39" t="s">
         <v>832</v>
@@ -15573,7 +15717,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:7" ht="14.25">
       <c r="A259" s="7" t="s">
         <v>130</v>
       </c>
@@ -15596,7 +15740,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:7" ht="14.25">
       <c r="A260" s="7"/>
       <c r="B260" s="39" t="s">
         <v>837</v>
@@ -15617,7 +15761,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:7" ht="14.25">
       <c r="A261" s="7"/>
       <c r="B261" s="39" t="s">
         <v>839</v>
@@ -15638,7 +15782,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:7" ht="14.25">
       <c r="A262" s="7" t="s">
         <v>133</v>
       </c>
@@ -15661,7 +15805,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:7" ht="14.25">
       <c r="A263" s="7"/>
       <c r="B263" s="39" t="s">
         <v>843</v>
@@ -15682,7 +15826,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:7" ht="14.25">
       <c r="A264" s="7"/>
       <c r="B264" s="39" t="s">
         <v>845</v>
@@ -15703,7 +15847,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:7" ht="14.25">
       <c r="A265" s="10" t="s">
         <v>369</v>
       </c>
@@ -15726,7 +15870,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:7" ht="14.25">
       <c r="A266" s="9"/>
       <c r="B266" s="39" t="s">
         <v>849</v>
@@ -15747,7 +15891,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:7" ht="14.25">
       <c r="A267" s="9"/>
       <c r="B267" s="39" t="s">
         <v>851</v>
@@ -15768,7 +15912,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:7" ht="14.25">
       <c r="A268" s="9"/>
       <c r="B268" s="39" t="s">
         <v>853</v>
@@ -15789,7 +15933,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:7" ht="14.25">
       <c r="A269" s="9"/>
       <c r="B269" s="39" t="s">
         <v>855</v>
@@ -15810,7 +15954,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:7" ht="14.25">
       <c r="A270" s="9"/>
       <c r="B270" s="39" t="s">
         <v>857</v>
@@ -15831,7 +15975,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:7" ht="14.25">
       <c r="A271" s="7" t="s">
         <v>139</v>
       </c>
@@ -15854,7 +15998,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:7" ht="14.25">
       <c r="A272" s="7"/>
       <c r="B272" s="39" t="s">
         <v>860</v>
@@ -15875,7 +16019,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:7" ht="14.25">
       <c r="A273" s="7" t="s">
         <v>142</v>
       </c>
@@ -15898,7 +16042,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:7" ht="14.25">
       <c r="A274" s="7"/>
       <c r="B274" s="39" t="s">
         <v>864</v>
@@ -15919,7 +16063,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:7" ht="14.25">
       <c r="A275" s="7"/>
       <c r="B275" s="39" t="s">
         <v>866</v>
@@ -15940,7 +16084,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:7" ht="14.25">
       <c r="A276" s="7"/>
       <c r="B276" s="39" t="s">
         <v>868</v>
@@ -15961,7 +16105,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:7" ht="14.25">
       <c r="A277" s="7"/>
       <c r="B277" s="39" t="s">
         <v>870</v>
@@ -15982,7 +16126,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:7" ht="14.25">
       <c r="A278" s="40" t="s">
         <v>145</v>
       </c>
@@ -16005,7 +16149,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:7" ht="14.25">
       <c r="A279" s="7" t="s">
         <v>148</v>
       </c>
@@ -16028,7 +16172,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:7" ht="14.25">
       <c r="A280" s="7"/>
       <c r="B280" s="39" t="s">
         <v>876</v>
@@ -16049,7 +16193,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:7" ht="14.25">
       <c r="A281" s="7"/>
       <c r="B281" s="39" t="s">
         <v>878</v>
@@ -16070,7 +16214,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:7" ht="14.25">
       <c r="A282" s="7"/>
       <c r="B282" s="39" t="s">
         <v>880</v>
@@ -16091,7 +16235,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:7" ht="14.25">
       <c r="A283" s="7"/>
       <c r="B283" s="39" t="s">
         <v>882</v>
@@ -16112,7 +16256,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:7" ht="14.25">
       <c r="A284" s="7"/>
       <c r="B284" s="39" t="s">
         <v>884</v>
@@ -16133,7 +16277,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:7" ht="14.25">
       <c r="A285" s="7"/>
       <c r="B285" s="39" t="s">
         <v>886</v>
@@ -16154,7 +16298,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:7" ht="14.25">
       <c r="A286" s="7"/>
       <c r="B286" s="39" t="s">
         <v>888</v>
@@ -16175,7 +16319,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:7" ht="14.25">
       <c r="A287" s="7"/>
       <c r="B287" s="39" t="s">
         <v>890</v>
@@ -16196,7 +16340,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:7" ht="14.25">
       <c r="A288" s="7"/>
       <c r="B288" s="39" t="s">
         <v>892</v>
@@ -16217,7 +16361,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:7" ht="14.25">
       <c r="A289" s="7"/>
       <c r="B289" s="39" t="s">
         <v>894</v>
@@ -16238,7 +16382,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:7" ht="14.25">
       <c r="A290" s="7"/>
       <c r="B290" s="39" t="s">
         <v>896</v>
@@ -16259,7 +16403,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:7" ht="14.25">
       <c r="A291" s="7"/>
       <c r="B291" s="39" t="s">
         <v>898</v>
@@ -16280,7 +16424,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:7" ht="14.25">
       <c r="A292" s="7"/>
       <c r="B292" s="39" t="s">
         <v>900</v>
@@ -16301,7 +16445,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:7" ht="14.25">
       <c r="A293" s="7"/>
       <c r="B293" s="39" t="s">
         <v>902</v>
@@ -16322,7 +16466,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:7" ht="14.25">
       <c r="A294" s="7" t="s">
         <v>151</v>
       </c>
@@ -16345,7 +16489,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:7" ht="14.25">
       <c r="A295" s="7"/>
       <c r="B295" s="39" t="s">
         <v>906</v>
@@ -16366,7 +16510,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:7" ht="14.25">
       <c r="A296" s="7"/>
       <c r="B296" s="39" t="s">
         <v>908</v>
@@ -16387,7 +16531,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:7" ht="14.25">
       <c r="A297" s="7" t="s">
         <v>154</v>
       </c>
@@ -16410,7 +16554,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:7" ht="14.25">
       <c r="A298" s="7"/>
       <c r="B298" s="39" t="s">
         <v>912</v>
@@ -16431,7 +16575,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:7" ht="14.25">
       <c r="A299" s="7"/>
       <c r="B299" s="39" t="s">
         <v>914</v>
@@ -16452,7 +16596,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:7" ht="14.25">
       <c r="A300" s="7" t="s">
         <v>157</v>
       </c>
@@ -16475,7 +16619,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:7" ht="14.25">
       <c r="A301" s="7"/>
       <c r="B301" s="39" t="s">
         <v>918</v>
@@ -16496,7 +16640,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:7" ht="14.25">
       <c r="A302" s="7"/>
       <c r="B302" s="39" t="s">
         <v>920</v>
@@ -16517,7 +16661,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:7" ht="14.25">
       <c r="A303" s="7"/>
       <c r="B303" s="39" t="s">
         <v>922</v>
@@ -16538,7 +16682,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:7" ht="14.25">
       <c r="A304" s="7"/>
       <c r="B304" s="39" t="s">
         <v>924</v>
@@ -16559,7 +16703,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:7" ht="14.25">
       <c r="A305" s="7"/>
       <c r="B305" s="39" t="s">
         <v>926</v>
@@ -16580,7 +16724,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="306" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:7" ht="15" customHeight="1">
       <c r="A306" s="7"/>
       <c r="B306" s="6" t="s">
         <v>928</v>
@@ -16601,7 +16745,7 @@
         <v>1607</v>
       </c>
     </row>
-    <row r="307" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:7" ht="15" customHeight="1">
       <c r="A307" s="7"/>
       <c r="B307" s="5"/>
       <c r="C307" s="2"/>
@@ -16616,7 +16760,7 @@
         <v>1608</v>
       </c>
     </row>
-    <row r="308" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:7" ht="15" customHeight="1">
       <c r="A308" s="7"/>
       <c r="B308" s="4"/>
       <c r="C308" s="1"/>
@@ -16631,7 +16775,7 @@
         <v>1609</v>
       </c>
     </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:7" ht="14.25">
       <c r="A309" s="7"/>
       <c r="B309" s="39" t="s">
         <v>930</v>
@@ -16652,7 +16796,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:7" ht="14.25">
       <c r="A310" s="7"/>
       <c r="B310" s="39" t="s">
         <v>932</v>
@@ -16673,7 +16817,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:7" ht="14.25">
       <c r="A311" s="7" t="s">
         <v>161</v>
       </c>
@@ -16696,7 +16840,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:7" ht="14.25">
       <c r="A312" s="7"/>
       <c r="B312" s="39" t="s">
         <v>936</v>
@@ -16717,7 +16861,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:7" ht="14.25">
       <c r="A313" s="7"/>
       <c r="B313" s="39" t="s">
         <v>938</v>
@@ -16738,7 +16882,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:7" ht="14.25">
       <c r="A314" s="7"/>
       <c r="B314" s="39" t="s">
         <v>940</v>
@@ -16759,7 +16903,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:7" ht="14.25">
       <c r="A315" s="7"/>
       <c r="B315" s="39" t="s">
         <v>942</v>
@@ -16780,7 +16924,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:7" ht="14.25">
       <c r="A316" s="7"/>
       <c r="B316" s="39" t="s">
         <v>944</v>
@@ -16801,7 +16945,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:7" ht="14.25">
       <c r="A317" s="40" t="s">
         <v>164</v>
       </c>
@@ -16824,7 +16968,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:7" ht="14.25">
       <c r="A318" s="7" t="s">
         <v>167</v>
       </c>
@@ -16847,7 +16991,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:7" ht="14.25">
       <c r="A319" s="7"/>
       <c r="B319" s="39" t="s">
         <v>950</v>
@@ -16868,7 +17012,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:7" ht="14.25">
       <c r="A320" s="7"/>
       <c r="B320" s="39" t="s">
         <v>952</v>
@@ -16889,7 +17033,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:7" ht="14.25">
       <c r="A321" s="7"/>
       <c r="B321" s="39" t="s">
         <v>954</v>
@@ -16910,7 +17054,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:7" ht="14.25">
       <c r="A322" s="7"/>
       <c r="B322" s="39" t="s">
         <v>956</v>
@@ -16931,7 +17075,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:7" ht="14.25">
       <c r="A323" s="7"/>
       <c r="B323" s="39" t="s">
         <v>958</v>
@@ -16952,7 +17096,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:7" ht="14.25">
       <c r="A324" s="7" t="s">
         <v>170</v>
       </c>
@@ -16975,7 +17119,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:7" ht="14.25">
       <c r="A325" s="7"/>
       <c r="B325" s="39" t="s">
         <v>962</v>
@@ -16996,7 +17140,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:7" ht="14.25">
       <c r="A326" s="7"/>
       <c r="B326" s="39" t="s">
         <v>964</v>
@@ -17017,7 +17161,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:7" ht="14.25">
       <c r="A327" s="7"/>
       <c r="B327" s="39" t="s">
         <v>966</v>
@@ -17038,7 +17182,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:7" ht="14.25">
       <c r="A328" s="7"/>
       <c r="B328" s="39" t="s">
         <v>968</v>
@@ -17059,7 +17203,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:7" ht="14.25">
       <c r="A329" s="7"/>
       <c r="B329" s="39" t="s">
         <v>970</v>
@@ -17080,7 +17224,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:7" ht="14.25">
       <c r="A330" s="7"/>
       <c r="B330" s="39" t="s">
         <v>972</v>
@@ -17101,7 +17245,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:7" ht="14.25">
       <c r="A331" s="7" t="s">
         <v>173</v>
       </c>
@@ -17124,7 +17268,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:7" ht="14.25">
       <c r="A332" s="7"/>
       <c r="B332" s="39" t="s">
         <v>976</v>
@@ -17145,7 +17289,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:7" ht="14.25">
       <c r="A333" s="7"/>
       <c r="B333" s="39" t="s">
         <v>978</v>
@@ -17166,7 +17310,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="334" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:7" ht="14.25">
       <c r="A334" s="7"/>
       <c r="B334" s="39" t="s">
         <v>980</v>
@@ -17187,7 +17331,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:7" ht="14.25">
       <c r="A335" s="7"/>
       <c r="B335" s="39" t="s">
         <v>982</v>
@@ -17208,7 +17352,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:7" ht="14.25">
       <c r="A336" s="7" t="s">
         <v>179</v>
       </c>
@@ -17231,7 +17375,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="337" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:7" ht="14.25">
       <c r="A337" s="7"/>
       <c r="B337" s="39" t="s">
         <v>986</v>
@@ -17252,7 +17396,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="338" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:7" ht="14.25">
       <c r="A338" s="7"/>
       <c r="B338" s="39" t="s">
         <v>988</v>
@@ -17273,7 +17417,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:7" ht="14.25">
       <c r="A339" s="7"/>
       <c r="B339" s="39" t="s">
         <v>990</v>
@@ -17294,7 +17438,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:7" ht="14.25">
       <c r="A340" s="7"/>
       <c r="B340" s="39" t="s">
         <v>992</v>
@@ -17315,7 +17459,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="341" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:7" ht="14.25">
       <c r="A341" s="7"/>
       <c r="B341" s="39" t="s">
         <v>994</v>
@@ -17336,7 +17480,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="342" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:7" ht="14.25">
       <c r="A342" s="7"/>
       <c r="B342" s="39" t="s">
         <v>996</v>
@@ -17357,7 +17501,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="343" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:7" ht="14.25">
       <c r="A343" s="7"/>
       <c r="B343" s="39" t="s">
         <v>1555</v>
@@ -17378,7 +17522,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="344" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:7" ht="14.25">
       <c r="A344" s="7"/>
       <c r="B344" s="39" t="s">
         <v>1556</v>
@@ -17399,7 +17543,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:7" ht="14.25">
       <c r="A345" s="7" t="s">
         <v>182</v>
       </c>
@@ -17422,7 +17566,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="346" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:7" ht="14.25">
       <c r="A346" s="7"/>
       <c r="B346" s="39" t="s">
         <v>1000</v>
@@ -17443,7 +17587,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="347" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:7" ht="14.25">
       <c r="A347" s="7"/>
       <c r="B347" s="39" t="s">
         <v>1002</v>
@@ -17464,7 +17608,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="348" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:7" ht="14.25">
       <c r="A348" s="7"/>
       <c r="B348" s="39" t="s">
         <v>1004</v>
@@ -17485,7 +17629,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="349" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:7" ht="14.25">
       <c r="A349" s="7"/>
       <c r="B349" s="39" t="s">
         <v>1006</v>
@@ -17506,7 +17650,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="350" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:7" ht="14.25">
       <c r="A350" s="7"/>
       <c r="B350" s="39" t="s">
         <v>1008</v>
@@ -17527,7 +17671,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="351" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:7" ht="14.25">
       <c r="A351" s="7"/>
       <c r="B351" s="39" t="s">
         <v>1010</v>
@@ -17548,7 +17692,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="352" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:7" ht="14.25">
       <c r="A352" s="7"/>
       <c r="B352" s="39" t="s">
         <v>1012</v>
@@ -17569,7 +17713,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="353" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:7" ht="14.25">
       <c r="A353" s="7"/>
       <c r="B353" s="39" t="s">
         <v>1014</v>
@@ -17590,7 +17734,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="354" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:7" ht="14.25">
       <c r="A354" s="7"/>
       <c r="B354" s="39" t="s">
         <v>1016</v>
@@ -17611,7 +17755,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="355" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:7" ht="14.25">
       <c r="A355" s="7"/>
       <c r="B355" s="39" t="s">
         <v>1018</v>
@@ -17632,7 +17776,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="356" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:7" ht="14.25">
       <c r="A356" s="7"/>
       <c r="B356" s="39" t="s">
         <v>1020</v>
@@ -17653,7 +17797,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="357" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:7" ht="14.25">
       <c r="A357" s="7"/>
       <c r="B357" s="39" t="s">
         <v>1022</v>
@@ -17674,7 +17818,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="358" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:7" ht="14.25">
       <c r="A358" s="7"/>
       <c r="B358" s="39" t="s">
         <v>1024</v>
@@ -17695,7 +17839,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="359" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:7" ht="14.25">
       <c r="A359" s="7"/>
       <c r="B359" s="39" t="s">
         <v>1523</v>
@@ -17716,7 +17860,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="360" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:7" ht="14.25">
       <c r="A360" s="7"/>
       <c r="B360" s="39" t="s">
         <v>1524</v>
@@ -17737,7 +17881,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="361" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:7" ht="14.25">
       <c r="A361" s="7"/>
       <c r="B361" s="39" t="s">
         <v>1528</v>
@@ -17758,7 +17902,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="362" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:7" ht="14.25">
       <c r="A362" s="7"/>
       <c r="B362" s="39" t="s">
         <v>1529</v>
@@ -17779,7 +17923,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:7" ht="14.25">
       <c r="A363" s="7"/>
       <c r="B363" s="39" t="s">
         <v>1530</v>
@@ -17800,7 +17944,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:7" ht="14.25">
       <c r="A364" s="7"/>
       <c r="B364" s="39" t="s">
         <v>1534</v>
@@ -17821,7 +17965,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="365" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:7" ht="15" customHeight="1">
       <c r="A365" s="10" t="s">
         <v>188</v>
       </c>
@@ -17844,7 +17988,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="366" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:7" ht="14.25">
       <c r="A366" s="9"/>
       <c r="B366" s="39" t="s">
         <v>1028</v>
@@ -17865,7 +18009,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="367" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:7" ht="14.25">
       <c r="A367" s="9"/>
       <c r="B367" s="39" t="s">
         <v>1030</v>
@@ -17886,7 +18030,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="368" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:7" ht="14.25">
       <c r="A368" s="9"/>
       <c r="B368" s="39" t="s">
         <v>1032</v>
@@ -17907,7 +18051,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="369" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:7" ht="14.25">
       <c r="A369" s="9"/>
       <c r="B369" s="39" t="s">
         <v>1034</v>
@@ -17928,7 +18072,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="370" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:7" ht="14.25">
       <c r="A370" s="9"/>
       <c r="B370" s="39" t="s">
         <v>1036</v>
@@ -17949,7 +18093,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="371" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:7" ht="14.25">
       <c r="A371" s="9"/>
       <c r="B371" s="39" t="s">
         <v>1518</v>
@@ -17970,7 +18114,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="372" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:7" ht="14.25">
       <c r="A372" s="8"/>
       <c r="B372" s="39" t="s">
         <v>1519</v>
@@ -17991,7 +18135,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="373" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:7" ht="14.25">
       <c r="A373" s="7" t="s">
         <v>185</v>
       </c>
@@ -18014,7 +18158,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="374" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:7" ht="14.25">
       <c r="A374" s="7"/>
       <c r="B374" s="39" t="s">
         <v>1040</v>
@@ -18035,7 +18179,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="375" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:7" ht="14.25">
       <c r="A375" s="7" t="s">
         <v>176</v>
       </c>
@@ -18058,7 +18202,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="376" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:7" ht="14.25">
       <c r="A376" s="7"/>
       <c r="B376" s="39" t="s">
         <v>1044</v>
@@ -18079,7 +18223,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="377" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:7" ht="14.25">
       <c r="A377" s="7"/>
       <c r="B377" s="39" t="s">
         <v>1046</v>
@@ -18100,7 +18244,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="378" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:7" ht="14.25">
       <c r="A378" s="7"/>
       <c r="B378" s="39" t="s">
         <v>1048</v>
@@ -18121,7 +18265,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="379" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:7" ht="14.25">
       <c r="A379" s="7"/>
       <c r="B379" s="39" t="s">
         <v>1577</v>
@@ -18142,7 +18286,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="380" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:7" ht="14.25">
       <c r="A380" s="7"/>
       <c r="B380" s="39" t="s">
         <v>1578</v>
@@ -18163,7 +18307,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="381" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:7" ht="14.25">
       <c r="A381" s="7"/>
       <c r="B381" s="39" t="s">
         <v>1579</v>
@@ -18184,7 +18328,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="382" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:7" ht="14.25">
       <c r="A382" s="7"/>
       <c r="B382" s="39" t="s">
         <v>1580</v>
@@ -18205,7 +18349,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="383" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:7" ht="14.25">
       <c r="A383" s="7"/>
       <c r="B383" s="39" t="s">
         <v>1581</v>
@@ -18226,7 +18370,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="384" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:7" ht="14.25">
       <c r="A384" s="7"/>
       <c r="B384" s="39" t="s">
         <v>1582</v>
@@ -18247,7 +18391,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="385" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:7" ht="14.25">
       <c r="A385" s="7" t="s">
         <v>194</v>
       </c>
@@ -18270,7 +18414,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="386" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:7" ht="14.25">
       <c r="A386" s="7"/>
       <c r="B386" s="39" t="s">
         <v>1052</v>
@@ -18291,7 +18435,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="387" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:7" ht="14.25">
       <c r="A387" s="7"/>
       <c r="B387" s="39" t="s">
         <v>1054</v>
@@ -18312,7 +18456,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="388" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:7" ht="14.25">
       <c r="A388" s="7"/>
       <c r="B388" s="39" t="s">
         <v>1056</v>
@@ -18333,7 +18477,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="389" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:7" ht="14.25">
       <c r="A389" s="7"/>
       <c r="B389" s="39" t="s">
         <v>1058</v>
@@ -18354,7 +18498,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="390" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:7" ht="14.25">
       <c r="A390" s="7"/>
       <c r="B390" s="39" t="s">
         <v>1060</v>
@@ -18375,7 +18519,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="391" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:7" ht="14.25">
       <c r="A391" s="10" t="s">
         <v>378</v>
       </c>
@@ -18398,7 +18542,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="392" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:7" ht="14.25">
       <c r="A392" s="9"/>
       <c r="B392" s="39" t="s">
         <v>1539</v>
@@ -18419,7 +18563,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="393" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:7" ht="14.25">
       <c r="A393" s="9"/>
       <c r="B393" s="39" t="s">
         <v>1540</v>
@@ -18440,7 +18584,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="394" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:7" ht="14.25">
       <c r="A394" s="9"/>
       <c r="B394" s="39" t="s">
         <v>1543</v>
@@ -18461,7 +18605,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="395" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:7" ht="14.25">
       <c r="A395" s="9"/>
       <c r="B395" s="39" t="s">
         <v>1544</v>
@@ -18482,7 +18626,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="396" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:7" ht="14.25">
       <c r="A396" s="8"/>
       <c r="B396" s="39" t="s">
         <v>1545</v>
@@ -18503,7 +18647,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="397" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:7" ht="14.25">
       <c r="A397" s="7" t="s">
         <v>197</v>
       </c>
@@ -18526,7 +18670,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="398" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:7" ht="14.25">
       <c r="A398" s="7"/>
       <c r="B398" s="39" t="s">
         <v>1064</v>
@@ -18547,7 +18691,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="399" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:7" ht="14.25">
       <c r="A399" s="7"/>
       <c r="B399" s="39" t="s">
         <v>1066</v>
@@ -18568,7 +18712,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="400" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:7" ht="14.25">
       <c r="A400" s="7"/>
       <c r="B400" s="39" t="s">
         <v>1068</v>
@@ -18589,7 +18733,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="401" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:7" ht="14.25">
       <c r="A401" s="7"/>
       <c r="B401" s="39" t="s">
         <v>1070</v>
@@ -18610,7 +18754,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="402" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:7" ht="14.25">
       <c r="A402" s="7"/>
       <c r="B402" s="39" t="s">
         <v>1072</v>
@@ -18631,7 +18775,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="403" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:7" ht="14.25">
       <c r="A403" s="7"/>
       <c r="B403" s="39" t="s">
         <v>1074</v>
@@ -18652,7 +18796,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="404" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:7" ht="14.25">
       <c r="A404" s="7" t="s">
         <v>199</v>
       </c>
@@ -18675,7 +18819,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="405" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:7" ht="14.25">
       <c r="A405" s="7"/>
       <c r="B405" s="39" t="s">
         <v>1078</v>
@@ -18696,7 +18840,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="406" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:7" ht="14.25">
       <c r="A406" s="7"/>
       <c r="B406" s="39" t="s">
         <v>1080</v>
@@ -18717,7 +18861,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="407" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:7" ht="14.25">
       <c r="A407" s="7"/>
       <c r="B407" s="39" t="s">
         <v>1082</v>
@@ -18738,7 +18882,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="408" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:7" ht="14.25">
       <c r="A408" s="7"/>
       <c r="B408" s="39" t="s">
         <v>1084</v>
@@ -18759,7 +18903,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="409" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:7" ht="14.25">
       <c r="A409" s="7"/>
       <c r="B409" s="39" t="s">
         <v>1086</v>
@@ -18780,7 +18924,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="410" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:7" ht="14.25">
       <c r="A410" s="7" t="s">
         <v>202</v>
       </c>
@@ -18803,7 +18947,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="411" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:7" ht="14.25">
       <c r="A411" s="7"/>
       <c r="B411" s="39" t="s">
         <v>1090</v>
@@ -18824,7 +18968,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="412" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:7" ht="14.25">
       <c r="A412" s="7"/>
       <c r="B412" s="39" t="s">
         <v>1092</v>
@@ -18845,7 +18989,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="413" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:7" ht="14.25">
       <c r="A413" s="7"/>
       <c r="B413" s="39" t="s">
         <v>1094</v>
@@ -18866,7 +19010,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="414" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:7" ht="14.25">
       <c r="A414" s="40" t="s">
         <v>205</v>
       </c>
@@ -18889,7 +19033,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="415" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:7" ht="14.25">
       <c r="A415" s="7" t="s">
         <v>208</v>
       </c>
@@ -18912,7 +19056,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="416" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:7" ht="14.25">
       <c r="A416" s="7"/>
       <c r="B416" s="39" t="s">
         <v>1100</v>
@@ -18933,7 +19077,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="417" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:7" ht="14.25">
       <c r="A417" s="7"/>
       <c r="B417" s="39" t="s">
         <v>1102</v>
@@ -18954,7 +19098,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="418" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:7" ht="14.25">
       <c r="A418" s="7" t="s">
         <v>211</v>
       </c>
@@ -18977,7 +19121,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="419" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:7" ht="14.25">
       <c r="A419" s="7"/>
       <c r="B419" s="39" t="s">
         <v>1106</v>
@@ -18998,7 +19142,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="420" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:7" ht="14.25">
       <c r="A420" s="7"/>
       <c r="B420" s="39" t="s">
         <v>1108</v>
@@ -19019,7 +19163,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="421" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:7" ht="14.25">
       <c r="A421" s="7"/>
       <c r="B421" s="39" t="s">
         <v>1110</v>
@@ -19040,7 +19184,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="422" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:7" ht="14.25">
       <c r="A422" s="7"/>
       <c r="B422" s="39" t="s">
         <v>1112</v>
@@ -19061,7 +19205,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="423" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:7" ht="14.25">
       <c r="A423" s="7"/>
       <c r="B423" s="39" t="s">
         <v>1114</v>
@@ -19082,7 +19226,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="424" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:7" ht="14.25">
       <c r="A424" s="7"/>
       <c r="B424" s="39" t="s">
         <v>1116</v>
@@ -19103,7 +19247,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="425" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:7" ht="14.25">
       <c r="A425" s="7"/>
       <c r="B425" s="39" t="s">
         <v>1118</v>
@@ -19124,7 +19268,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="426" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:7" ht="14.25">
       <c r="A426" s="7"/>
       <c r="B426" s="39" t="s">
         <v>1120</v>
@@ -19145,7 +19289,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="427" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:7" ht="14.25">
       <c r="A427" s="7"/>
       <c r="B427" s="39" t="s">
         <v>1122</v>
@@ -19166,7 +19310,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="428" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:7" ht="14.25">
       <c r="A428" s="7"/>
       <c r="B428" s="39" t="s">
         <v>1124</v>
@@ -19187,7 +19331,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="429" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:7" ht="14.25">
       <c r="A429" s="7" t="s">
         <v>214</v>
       </c>
@@ -19210,7 +19354,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="430" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:7" ht="14.25">
       <c r="A430" s="7"/>
       <c r="B430" s="39" t="s">
         <v>1128</v>
@@ -19231,7 +19375,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="431" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:7" ht="14.25">
       <c r="A431" s="7" t="s">
         <v>217</v>
       </c>
@@ -19254,7 +19398,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="432" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:7" ht="14.25">
       <c r="A432" s="7"/>
       <c r="B432" s="39" t="s">
         <v>1132</v>
@@ -19275,7 +19419,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="433" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:7" ht="14.25">
       <c r="A433" s="7" t="s">
         <v>220</v>
       </c>
@@ -19298,7 +19442,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="434" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:7" ht="14.25">
       <c r="A434" s="7"/>
       <c r="B434" s="39" t="s">
         <v>1136</v>
@@ -19319,7 +19463,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="435" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:7" ht="14.25">
       <c r="A435" s="7"/>
       <c r="B435" s="39" t="s">
         <v>1138</v>
@@ -19340,7 +19484,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="436" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:7" ht="14.25">
       <c r="A436" s="7"/>
       <c r="B436" s="39" t="s">
         <v>1140</v>
@@ -19361,7 +19505,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="437" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:7" ht="14.25">
       <c r="A437" s="7"/>
       <c r="B437" s="39" t="s">
         <v>1142</v>
@@ -19382,7 +19526,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="438" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:7" ht="14.25">
       <c r="A438" s="7"/>
       <c r="B438" s="39" t="s">
         <v>1144</v>
@@ -19403,7 +19547,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="439" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:7" ht="14.25">
       <c r="A439" s="7"/>
       <c r="B439" s="39" t="s">
         <v>1146</v>
@@ -19424,7 +19568,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="440" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:7" ht="14.25">
       <c r="A440" s="7"/>
       <c r="B440" s="39" t="s">
         <v>1148</v>
@@ -19445,7 +19589,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="441" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:7" ht="14.25">
       <c r="A441" s="7"/>
       <c r="B441" s="39" t="s">
         <v>1150</v>
@@ -19466,7 +19610,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="442" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:7" ht="15" customHeight="1">
       <c r="A442" s="7"/>
       <c r="B442" s="39" t="s">
         <v>1152</v>
@@ -19487,7 +19631,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="443" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:7" ht="15" customHeight="1">
       <c r="A443" s="40" t="s">
         <v>223</v>
       </c>
@@ -19510,7 +19654,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="444" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:7" ht="14.25">
       <c r="A444" s="7" t="s">
         <v>226</v>
       </c>
@@ -19533,7 +19677,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="445" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:7" ht="14.25">
       <c r="A445" s="7"/>
       <c r="B445" s="39" t="s">
         <v>1158</v>
@@ -19554,7 +19698,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="446" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:7" ht="14.25">
       <c r="A446" s="7"/>
       <c r="B446" s="39" t="s">
         <v>1160</v>
@@ -19575,7 +19719,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="447" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:7" ht="14.25">
       <c r="A447" s="40" t="s">
         <v>229</v>
       </c>
@@ -19598,7 +19742,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="448" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:7" ht="14.25">
       <c r="A448" s="7" t="s">
         <v>232</v>
       </c>
@@ -19621,7 +19765,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="449" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:7" ht="14.25">
       <c r="A449" s="7"/>
       <c r="B449" s="39" t="s">
         <v>1166</v>
@@ -19642,7 +19786,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="450" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:7" ht="14.25">
       <c r="A450" s="7"/>
       <c r="B450" s="39" t="s">
         <v>1168</v>
@@ -19663,7 +19807,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="451" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:7" ht="14.25">
       <c r="A451" s="7" t="s">
         <v>235</v>
       </c>
@@ -19686,7 +19830,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="452" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:7" ht="14.25">
       <c r="A452" s="7"/>
       <c r="B452" s="39" t="s">
         <v>1172</v>
@@ -19707,7 +19851,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="453" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:7" ht="14.25">
       <c r="A453" s="7"/>
       <c r="B453" s="39" t="s">
         <v>1174</v>
@@ -19728,7 +19872,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="454" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:7" ht="14.25">
       <c r="A454" s="10" t="s">
         <v>238</v>
       </c>
@@ -19751,7 +19895,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="455" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:7" ht="14.25">
       <c r="A455" s="9"/>
       <c r="B455" s="39" t="s">
         <v>1178</v>
@@ -19772,7 +19916,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="456" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:7" ht="14.25">
       <c r="A456" s="9"/>
       <c r="B456" s="39" t="s">
         <v>531</v>
@@ -19793,7 +19937,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="457" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:7" ht="14.25">
       <c r="A457" s="9"/>
       <c r="B457" s="39" t="s">
         <v>533</v>
@@ -19814,7 +19958,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="458" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:7" ht="14.25">
       <c r="A458" s="9"/>
       <c r="B458" s="39" t="s">
         <v>535</v>
@@ -19835,7 +19979,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="459" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:7" ht="14.25">
       <c r="A459" s="9"/>
       <c r="B459" s="39" t="s">
         <v>1180</v>
@@ -19856,7 +20000,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="460" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:7" ht="14.25">
       <c r="A460" s="9"/>
       <c r="B460" s="39" t="s">
         <v>1182</v>
@@ -19877,7 +20021,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="461" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:7" ht="14.25">
       <c r="A461" s="9"/>
       <c r="B461" s="39" t="s">
         <v>1184</v>
@@ -19898,7 +20042,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="462" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:7" ht="14.25">
       <c r="A462" s="9"/>
       <c r="B462" s="39" t="s">
         <v>1186</v>
@@ -19919,7 +20063,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="463" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:7" ht="14.25">
       <c r="A463" s="9"/>
       <c r="B463" s="39" t="s">
         <v>1551</v>
@@ -19940,7 +20084,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="464" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:7" ht="14.25">
       <c r="A464" s="8"/>
       <c r="B464" s="39" t="s">
         <v>1552</v>
@@ -19961,7 +20105,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="465" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:7" ht="14.25">
       <c r="A465" s="7" t="s">
         <v>241</v>
       </c>
@@ -19984,7 +20128,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="466" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:7" ht="14.25">
       <c r="A466" s="7"/>
       <c r="B466" s="39" t="s">
         <v>1190</v>
@@ -20005,7 +20149,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="467" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:7" ht="14.25">
       <c r="A467" s="7"/>
       <c r="B467" s="39" t="s">
         <v>1192</v>
@@ -20026,7 +20170,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="468" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:7" ht="14.25">
       <c r="A468" s="7"/>
       <c r="B468" s="39" t="s">
         <v>1194</v>
@@ -20047,7 +20191,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="469" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:7" ht="14.25">
       <c r="A469" s="7"/>
       <c r="B469" s="38" t="s">
         <v>1196</v>
@@ -20068,7 +20212,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="470" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:7" ht="14.25">
       <c r="A470" s="7"/>
       <c r="B470" s="39" t="s">
         <v>1198</v>
@@ -20089,7 +20233,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="471" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:7" ht="14.25">
       <c r="A471" s="7"/>
       <c r="B471" s="39" t="s">
         <v>1200</v>
@@ -20110,7 +20254,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="472" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:7" ht="14.25">
       <c r="A472" s="7"/>
       <c r="B472" s="39" t="s">
         <v>1202</v>
@@ -20131,7 +20275,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="473" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:7" ht="14.25">
       <c r="A473" s="7"/>
       <c r="B473" s="39" t="s">
         <v>1204</v>
@@ -20152,7 +20296,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="474" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:7" ht="14.25">
       <c r="A474" s="7"/>
       <c r="B474" s="39" t="s">
         <v>1206</v>
@@ -20173,7 +20317,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="475" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:7" ht="14.25">
       <c r="A475" s="7"/>
       <c r="B475" s="39" t="s">
         <v>1208</v>
@@ -20194,7 +20338,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="476" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:7" ht="14.25">
       <c r="A476" s="7"/>
       <c r="B476" s="39" t="s">
         <v>1210</v>
@@ -20215,7 +20359,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="477" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:7" ht="14.25">
       <c r="A477" s="7"/>
       <c r="B477" s="39" t="s">
         <v>1212</v>
@@ -20236,7 +20380,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="478" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:7" ht="14.25">
       <c r="A478" s="7"/>
       <c r="B478" s="39" t="s">
         <v>1214</v>
@@ -20257,7 +20401,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="479" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:7" ht="14.25">
       <c r="A479" s="7"/>
       <c r="B479" s="39" t="s">
         <v>1216</v>
@@ -20278,7 +20422,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="480" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:7" ht="14.25">
       <c r="A480" s="7"/>
       <c r="B480" s="39" t="s">
         <v>1218</v>
@@ -20299,7 +20443,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="481" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:7" ht="14.25">
       <c r="A481" s="7" t="s">
         <v>244</v>
       </c>
@@ -20322,7 +20466,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="482" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:7" ht="14.25">
       <c r="A482" s="7"/>
       <c r="B482" s="39" t="s">
         <v>1222</v>
@@ -20343,7 +20487,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="483" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:7" ht="14.25">
       <c r="A483" s="7" t="s">
         <v>247</v>
       </c>
@@ -20366,7 +20510,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="484" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:7" ht="14.25">
       <c r="A484" s="7"/>
       <c r="B484" s="39" t="s">
         <v>1226</v>
@@ -20387,7 +20531,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="485" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:7" ht="14.25">
       <c r="A485" s="7" t="s">
         <v>371</v>
       </c>
@@ -20410,7 +20554,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="486" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:7" ht="14.25">
       <c r="A486" s="7"/>
       <c r="B486" s="39" t="s">
         <v>1230</v>
@@ -20431,7 +20575,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="487" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:7" ht="14.25">
       <c r="A487" s="7"/>
       <c r="B487" s="39" t="s">
         <v>1232</v>
@@ -20452,7 +20596,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="488" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:7" ht="14.25">
       <c r="A488" s="7"/>
       <c r="B488" s="39" t="s">
         <v>1234</v>
@@ -20473,7 +20617,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="489" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:7" ht="14.25">
       <c r="A489" s="7"/>
       <c r="B489" s="39" t="s">
         <v>1236</v>
@@ -20494,7 +20638,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="490" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:7" ht="14.25">
       <c r="A490" s="7"/>
       <c r="B490" s="39" t="s">
         <v>1238</v>
@@ -20515,7 +20659,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="491" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:7" ht="14.25">
       <c r="A491" s="7"/>
       <c r="B491" s="39" t="s">
         <v>1240</v>
@@ -20536,7 +20680,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="492" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:7" ht="14.25">
       <c r="A492" s="7"/>
       <c r="B492" s="39" t="s">
         <v>1242</v>
@@ -20557,7 +20701,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="493" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:7" ht="14.25">
       <c r="A493" s="7"/>
       <c r="B493" s="39" t="s">
         <v>1244</v>
@@ -20578,7 +20722,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="494" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:7" ht="14.25">
       <c r="A494" s="7"/>
       <c r="B494" s="39" t="s">
         <v>1246</v>
@@ -20599,7 +20743,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="495" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:7" ht="14.25">
       <c r="A495" s="7"/>
       <c r="B495" s="39" t="s">
         <v>1246</v>
@@ -20620,7 +20764,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="496" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:7" ht="14.25">
       <c r="A496" s="7" t="s">
         <v>323</v>
       </c>
@@ -20643,7 +20787,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="497" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:7" ht="14.25">
       <c r="A497" s="7"/>
       <c r="B497" s="39" t="s">
         <v>1252</v>
@@ -20664,7 +20808,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="498" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:7" ht="14.25">
       <c r="A498" s="7"/>
       <c r="B498" s="39" t="s">
         <v>1254</v>
@@ -20685,7 +20829,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="499" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:7" ht="14.25">
       <c r="A499" s="7"/>
       <c r="B499" s="39" t="s">
         <v>1256</v>
@@ -20706,7 +20850,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="500" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:7" ht="14.25">
       <c r="A500" s="7"/>
       <c r="B500" s="39" t="s">
         <v>1258</v>
@@ -20727,7 +20871,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="501" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:7" ht="14.25">
       <c r="A501" s="7"/>
       <c r="B501" s="39" t="s">
         <v>1260</v>
@@ -20748,7 +20892,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="502" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:7" ht="14.25">
       <c r="A502" s="7"/>
       <c r="B502" s="39" t="s">
         <v>1262</v>
@@ -20769,7 +20913,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="503" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:7" ht="14.25">
       <c r="A503" s="7"/>
       <c r="B503" s="39" t="s">
         <v>1264</v>
@@ -20790,7 +20934,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="504" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:7" ht="14.25">
       <c r="A504" s="7"/>
       <c r="B504" s="39" t="s">
         <v>1266</v>
@@ -20811,7 +20955,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="505" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:7" ht="14.25">
       <c r="A505" s="7"/>
       <c r="B505" s="39" t="s">
         <v>1268</v>
@@ -20832,7 +20976,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="506" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:7" ht="14.25">
       <c r="A506" s="7"/>
       <c r="B506" s="39" t="s">
         <v>1270</v>
@@ -20853,7 +20997,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="507" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:7" ht="14.25">
       <c r="A507" s="7"/>
       <c r="B507" s="39" t="s">
         <v>1272</v>
@@ -20874,7 +21018,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="508" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:7" ht="14.25">
       <c r="A508" s="7"/>
       <c r="B508" s="39" t="s">
         <v>1274</v>
@@ -20895,7 +21039,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="509" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:7" ht="14.25">
       <c r="A509" s="7"/>
       <c r="B509" s="39" t="s">
         <v>1276</v>
@@ -20916,7 +21060,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="510" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:7" ht="14.25">
       <c r="A510" s="7" t="s">
         <v>252</v>
       </c>
@@ -20939,7 +21083,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="511" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:7" ht="14.25">
       <c r="A511" s="7"/>
       <c r="B511" s="39" t="s">
         <v>1280</v>
@@ -20960,7 +21104,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="512" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:7" ht="14.25">
       <c r="A512" s="7"/>
       <c r="B512" s="39" t="s">
         <v>1282</v>
@@ -20981,7 +21125,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="513" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:7" ht="14.25">
       <c r="A513" s="7" t="s">
         <v>255</v>
       </c>
@@ -21004,7 +21148,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="514" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:7" ht="14.25">
       <c r="A514" s="7"/>
       <c r="B514" s="39" t="s">
         <v>1286</v>
@@ -21025,7 +21169,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="515" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:7" ht="14.25">
       <c r="A515" s="7"/>
       <c r="B515" s="39" t="s">
         <v>1288</v>
@@ -21046,7 +21190,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="516" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:7" ht="14.25">
       <c r="A516" s="7"/>
       <c r="B516" s="39" t="s">
         <v>1290</v>
@@ -21067,7 +21211,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="517" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:7" ht="14.25">
       <c r="A517" s="7"/>
       <c r="B517" s="39" t="s">
         <v>1292</v>
@@ -21088,7 +21232,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="518" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:7" ht="14.25">
       <c r="A518" s="7" t="s">
         <v>381</v>
       </c>
@@ -21111,7 +21255,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="519" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:7" ht="14.25">
       <c r="A519" s="7"/>
       <c r="B519" s="39" t="s">
         <v>1584</v>
@@ -21132,7 +21276,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="520" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:7" ht="14.25">
       <c r="A520" s="7"/>
       <c r="B520" s="39" t="s">
         <v>1585</v>
@@ -21153,7 +21297,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="521" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:7" ht="14.25">
       <c r="A521" s="7"/>
       <c r="B521" s="39" t="s">
         <v>1586</v>
@@ -21174,7 +21318,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="522" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:7" ht="14.25">
       <c r="A522" s="7"/>
       <c r="B522" s="39" t="s">
         <v>1587</v>
@@ -21195,7 +21339,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="523" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:7" ht="14.25">
       <c r="A523" s="7"/>
       <c r="B523" s="39" t="s">
         <v>1588</v>
@@ -21216,7 +21360,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="524" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:7" ht="14.25">
       <c r="A524" s="7"/>
       <c r="B524" s="39" t="s">
         <v>1589</v>
@@ -21237,7 +21381,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="525" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:7" ht="14.25">
       <c r="A525" s="7"/>
       <c r="B525" s="39" t="s">
         <v>1590</v>
@@ -21258,7 +21402,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="526" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:7" ht="14.25">
       <c r="A526" s="7"/>
       <c r="B526" s="39" t="s">
         <v>1591</v>
@@ -21279,7 +21423,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="527" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:7" ht="14.25">
       <c r="A527" s="7"/>
       <c r="B527" s="39" t="s">
         <v>1592</v>
@@ -21300,7 +21444,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="528" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:7" ht="14.25">
       <c r="A528" s="7" t="s">
         <v>370</v>
       </c>
@@ -21323,7 +21467,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="529" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:7" ht="14.25">
       <c r="A529" s="7"/>
       <c r="B529" s="39" t="s">
         <v>1296</v>
@@ -21344,7 +21488,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="530" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:7" ht="14.25">
       <c r="A530" s="7" t="s">
         <v>258</v>
       </c>
@@ -21367,7 +21511,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="531" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:7" ht="14.25">
       <c r="A531" s="7"/>
       <c r="B531" s="39" t="s">
         <v>1300</v>
@@ -21388,7 +21532,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="532" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:7" ht="14.25">
       <c r="A532" s="7"/>
       <c r="B532" s="39" t="s">
         <v>1302</v>
@@ -21409,7 +21553,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="533" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:7" ht="14.25">
       <c r="A533" s="7" t="s">
         <v>261</v>
       </c>
@@ -21432,7 +21576,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="534" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:7" ht="14.25">
       <c r="A534" s="7"/>
       <c r="B534" s="39" t="s">
         <v>1306</v>
@@ -21453,7 +21597,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="535" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:7" ht="14.25">
       <c r="A535" s="7"/>
       <c r="B535" s="39" t="s">
         <v>1308</v>
@@ -21474,7 +21618,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="536" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:7" ht="14.25">
       <c r="A536" s="7"/>
       <c r="B536" s="39" t="s">
         <v>1310</v>
@@ -21495,7 +21639,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="537" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:7" ht="14.25">
       <c r="A537" s="7"/>
       <c r="B537" s="39" t="s">
         <v>1312</v>
@@ -21516,7 +21660,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="538" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:7" ht="14.25">
       <c r="A538" s="7"/>
       <c r="B538" s="39" t="s">
         <v>1314</v>
@@ -21537,7 +21681,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="539" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:7" ht="14.25">
       <c r="A539" s="7" t="s">
         <v>264</v>
       </c>
@@ -21560,7 +21704,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="540" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:7" ht="14.25">
       <c r="A540" s="7"/>
       <c r="B540" s="39" t="s">
         <v>1318</v>
@@ -21581,7 +21725,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="541" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:7" ht="14.25">
       <c r="A541" s="7"/>
       <c r="B541" s="39" t="s">
         <v>1320</v>
@@ -21602,7 +21746,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="542" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:7" ht="14.25">
       <c r="A542" s="7"/>
       <c r="B542" s="39" t="s">
         <v>1322</v>
@@ -21623,7 +21767,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="543" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:7" ht="14.25">
       <c r="A543" s="7"/>
       <c r="B543" s="39" t="s">
         <v>1324</v>
@@ -21644,7 +21788,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="544" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:7" ht="14.25">
       <c r="A544" s="7" t="s">
         <v>267</v>
       </c>
@@ -21667,7 +21811,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="545" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:7" ht="14.25">
       <c r="A545" s="7"/>
       <c r="B545" s="39" t="s">
         <v>1328</v>
@@ -21688,7 +21832,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="546" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:7" ht="14.25">
       <c r="A546" s="7" t="s">
         <v>270</v>
       </c>
@@ -21711,7 +21855,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="547" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:7" ht="14.25">
       <c r="A547" s="7"/>
       <c r="B547" s="39" t="s">
         <v>1332</v>
@@ -21732,7 +21876,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="548" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:7" ht="14.25">
       <c r="A548" s="7"/>
       <c r="B548" s="39" t="s">
         <v>1334</v>
@@ -21753,7 +21897,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="549" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:7" ht="14.25">
       <c r="A549" s="7"/>
       <c r="B549" s="39" t="s">
         <v>1336</v>
@@ -21774,7 +21918,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="550" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:7" ht="14.25">
       <c r="A550" s="7"/>
       <c r="B550" s="39" t="s">
         <v>1338</v>
@@ -21795,7 +21939,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="551" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:7" ht="14.25">
       <c r="A551" s="7" t="s">
         <v>273</v>
       </c>
@@ -21818,7 +21962,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="552" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:7" ht="14.25">
       <c r="A552" s="7"/>
       <c r="B552" s="39" t="s">
         <v>1342</v>
@@ -21839,7 +21983,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="553" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:7" ht="14.25">
       <c r="A553" s="7"/>
       <c r="B553" s="39" t="s">
         <v>1344</v>
@@ -21860,7 +22004,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="554" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:7" ht="14.25">
       <c r="A554" s="7"/>
       <c r="B554" s="39" t="s">
         <v>1346</v>
@@ -21881,7 +22025,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="555" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:7" ht="14.25">
       <c r="A555" s="7"/>
       <c r="B555" s="39" t="s">
         <v>1348</v>
@@ -21902,7 +22046,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="556" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:7" ht="14.25">
       <c r="A556" s="7"/>
       <c r="B556" s="39" t="s">
         <v>1350</v>
@@ -21923,7 +22067,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="557" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:7" ht="14.25">
       <c r="A557" s="7" t="s">
         <v>276</v>
       </c>
@@ -21946,7 +22090,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="558" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:7" ht="14.25">
       <c r="A558" s="7"/>
       <c r="B558" s="39" t="s">
         <v>1354</v>
@@ -21967,7 +22111,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="559" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:7" ht="14.25">
       <c r="A559" s="7"/>
       <c r="B559" s="39" t="s">
         <v>1356</v>
@@ -21988,7 +22132,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="560" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:7" ht="14.25">
       <c r="A560" s="7" t="s">
         <v>324</v>
       </c>
@@ -22011,7 +22155,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="561" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:7" ht="14.25">
       <c r="A561" s="7"/>
       <c r="B561" s="39" t="s">
         <v>1360</v>
@@ -22032,7 +22176,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="562" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:7" ht="14.25">
       <c r="A562" s="7"/>
       <c r="B562" s="39" t="s">
         <v>1362</v>
@@ -22053,7 +22197,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="563" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:7" ht="14.25">
       <c r="A563" s="7"/>
       <c r="B563" s="39" t="s">
         <v>1364</v>
@@ -22074,7 +22218,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="564" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:7" ht="14.25">
       <c r="A564" s="7"/>
       <c r="B564" s="39" t="s">
         <v>1366</v>
@@ -22095,7 +22239,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="565" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:7" ht="14.25">
       <c r="A565" s="7"/>
       <c r="B565" s="38" t="s">
         <v>1368</v>
@@ -22116,7 +22260,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="566" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:7" ht="14.25">
       <c r="A566" s="7"/>
       <c r="B566" s="39" t="s">
         <v>1370</v>
@@ -22137,7 +22281,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="567" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:7" ht="14.25">
       <c r="A567" s="7" t="s">
         <v>281</v>
       </c>
@@ -22160,7 +22304,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="568" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:7" ht="14.25">
       <c r="A568" s="7"/>
       <c r="B568" s="39" t="s">
         <v>1374</v>
@@ -22181,7 +22325,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="569" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:7" ht="14.25">
       <c r="A569" s="7"/>
       <c r="B569" s="39" t="s">
         <v>1376</v>
@@ -22202,7 +22346,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="570" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:7" ht="14.25">
       <c r="A570" s="7"/>
       <c r="B570" s="39" t="s">
         <v>1378</v>
@@ -22223,7 +22367,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="571" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:7" ht="14.25">
       <c r="A571" s="7"/>
       <c r="B571" s="39" t="s">
         <v>1380</v>
@@ -22244,7 +22388,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="572" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:7" ht="14.25">
       <c r="A572" s="7"/>
       <c r="B572" s="39" t="s">
         <v>1382</v>
@@ -22265,7 +22409,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="573" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:7" ht="14.25">
       <c r="A573" s="7"/>
       <c r="B573" s="39" t="s">
         <v>1384</v>
@@ -22286,7 +22430,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="574" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:7" ht="14.25">
       <c r="A574" s="7" t="s">
         <v>284</v>
       </c>
@@ -22309,7 +22453,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="575" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:7" ht="14.25">
       <c r="A575" s="7"/>
       <c r="B575" s="39" t="s">
         <v>1388</v>
@@ -22330,7 +22474,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="576" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:7" ht="14.25">
       <c r="A576" s="7"/>
       <c r="B576" s="39" t="s">
         <v>1390</v>
@@ -22351,7 +22495,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="577" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:7" ht="14.25">
       <c r="A577" s="7" t="s">
         <v>287</v>
       </c>
@@ -22374,7 +22518,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="578" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:7" ht="14.25">
       <c r="A578" s="7"/>
       <c r="B578" s="39" t="s">
         <v>1395</v>
@@ -22395,7 +22539,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="579" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:7" ht="14.25">
       <c r="A579" s="7"/>
       <c r="B579" s="39" t="s">
         <v>1398</v>
@@ -22416,7 +22560,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="580" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:7" ht="14.25">
       <c r="A580" s="7"/>
       <c r="B580" s="39" t="s">
         <v>1401</v>
@@ -22437,7 +22581,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="581" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:7" ht="14.25">
       <c r="A581" s="7"/>
       <c r="B581" s="38" t="s">
         <v>1404</v>
@@ -22458,7 +22602,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="582" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:7" ht="14.25">
       <c r="A582" s="7" t="s">
         <v>290</v>
       </c>
@@ -22481,7 +22625,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="583" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:7" ht="14.25">
       <c r="A583" s="7"/>
       <c r="B583" s="39" t="s">
         <v>1409</v>
@@ -22502,7 +22646,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="584" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:7" ht="14.25">
       <c r="A584" s="7"/>
       <c r="B584" s="39" t="s">
         <v>1411</v>
@@ -22523,7 +22667,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="585" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:7" ht="14.25">
       <c r="A585" s="7"/>
       <c r="B585" s="39" t="s">
         <v>1413</v>
@@ -22544,7 +22688,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="586" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:7" ht="14.25">
       <c r="A586" s="7"/>
       <c r="B586" s="39" t="s">
         <v>1415</v>
@@ -22565,7 +22709,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="587" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:7" ht="14.25">
       <c r="A587" s="7"/>
       <c r="B587" s="39" t="s">
         <v>1626</v>
@@ -22586,7 +22730,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="588" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:7" ht="14.25">
       <c r="A588" s="7"/>
       <c r="B588" s="39" t="s">
         <v>1627</v>
@@ -22607,7 +22751,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="589" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:7" ht="14.25">
       <c r="A589" s="7"/>
       <c r="B589" s="39" t="s">
         <v>1630</v>
@@ -22628,7 +22772,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="590" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:7" ht="14.25">
       <c r="A590" s="7"/>
       <c r="B590" s="39" t="s">
         <v>1631</v>
@@ -22649,7 +22793,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="591" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:7" ht="14.25">
       <c r="A591" s="7"/>
       <c r="B591" s="39" t="s">
         <v>1634</v>
@@ -22670,7 +22814,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="592" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:7" ht="14.25">
       <c r="A592" s="7"/>
       <c r="B592" s="39" t="s">
         <v>1636</v>
@@ -22691,7 +22835,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="593" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:7" ht="14.25">
       <c r="A593" s="7"/>
       <c r="B593" s="39" t="s">
         <v>1637</v>
@@ -22712,7 +22856,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="594" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:7" ht="14.25">
       <c r="A594" s="7"/>
       <c r="B594" s="39" t="s">
         <v>1639</v>
@@ -22733,7 +22877,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="595" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:7" ht="14.25">
       <c r="A595" s="7"/>
       <c r="B595" s="39" t="s">
         <v>1641</v>
@@ -22752,7 +22896,7 @@
       </c>
       <c r="G595" s="39"/>
     </row>
-    <row r="596" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:7" ht="14.25">
       <c r="A596" s="7"/>
       <c r="B596" s="39" t="s">
         <v>1643</v>
@@ -22771,7 +22915,7 @@
       </c>
       <c r="G596" s="39"/>
     </row>
-    <row r="597" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:7" ht="14.25">
       <c r="A597" s="7"/>
       <c r="B597" s="39" t="s">
         <v>1645</v>
@@ -22790,7 +22934,7 @@
       </c>
       <c r="G597" s="39"/>
     </row>
-    <row r="598" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:7" ht="14.25">
       <c r="A598" s="7"/>
       <c r="B598" s="39" t="s">
         <v>1648</v>
@@ -22811,7 +22955,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="599" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:7" ht="14.25">
       <c r="A599" s="7"/>
       <c r="B599" s="39" t="s">
         <v>1649</v>
@@ -22832,7 +22976,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="600" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:7" ht="14.25">
       <c r="A600" s="7" t="s">
         <v>293</v>
       </c>
@@ -22855,7 +22999,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="601" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:7" ht="14.25">
       <c r="A601" s="7"/>
       <c r="B601" s="39" t="s">
         <v>1419</v>
@@ -22876,7 +23020,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="602" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:7" ht="14.25">
       <c r="A602" s="7"/>
       <c r="B602" s="39" t="s">
         <v>1421</v>
@@ -22897,7 +23041,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="603" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:7" ht="14.25">
       <c r="A603" s="7"/>
       <c r="B603" s="39" t="s">
         <v>1424</v>
@@ -22918,7 +23062,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="604" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:7" ht="14.25">
       <c r="A604" s="7"/>
       <c r="B604" s="39" t="s">
         <v>1576</v>
@@ -22939,7 +23083,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="605" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:7" ht="14.25">
       <c r="A605" s="7"/>
       <c r="B605" s="39" t="s">
         <v>1593</v>
@@ -22960,7 +23104,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="606" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:7" ht="14.25">
       <c r="A606" s="7"/>
       <c r="B606" s="39" t="s">
         <v>1594</v>
@@ -22981,7 +23125,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="607" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:7" ht="14.25">
       <c r="A607" s="7"/>
       <c r="B607" s="39" t="s">
         <v>1595</v>
@@ -23002,7 +23146,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="608" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:7" ht="14.25">
       <c r="A608" s="7" t="s">
         <v>296</v>
       </c>
@@ -23025,7 +23169,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="609" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:7" ht="14.25">
       <c r="A609" s="7"/>
       <c r="B609" s="39" t="s">
         <v>1429</v>
@@ -23046,7 +23190,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="610" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:7" ht="14.25">
       <c r="A610" s="7"/>
       <c r="B610" s="39" t="s">
         <v>1431</v>
@@ -23067,7 +23211,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="611" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:7" ht="14.25">
       <c r="A611" s="7"/>
       <c r="B611" s="39" t="s">
         <v>1433</v>
@@ -23088,7 +23232,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="612" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:7" ht="14.25">
       <c r="A612" s="7"/>
       <c r="B612" s="39" t="s">
         <v>1435</v>
@@ -23109,7 +23253,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="613" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:7" ht="14.25">
       <c r="A613" s="7"/>
       <c r="B613" s="39" t="s">
         <v>1437</v>
@@ -23130,7 +23274,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="614" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:7" ht="14.25">
       <c r="A614" s="7"/>
       <c r="B614" s="39" t="s">
         <v>1439</v>
@@ -23151,7 +23295,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="615" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:7" ht="14.25">
       <c r="A615" s="7" t="s">
         <v>299</v>
       </c>
@@ -23174,7 +23318,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="616" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:7" ht="14.25">
       <c r="A616" s="7"/>
       <c r="B616" s="39" t="s">
         <v>1443</v>
@@ -23195,7 +23339,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="617" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:7" ht="14.25">
       <c r="A617" s="7"/>
       <c r="B617" s="39" t="s">
         <v>1444</v>
@@ -23216,7 +23360,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="618" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:7" ht="14.25">
       <c r="A618" s="7"/>
       <c r="B618" s="39" t="s">
         <v>1446</v>
@@ -23237,7 +23381,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="619" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:7" ht="14.25">
       <c r="A619" s="7"/>
       <c r="B619" s="39" t="s">
         <v>1448</v>
@@ -23258,7 +23402,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="620" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:7" ht="14.25">
       <c r="A620" s="7"/>
       <c r="B620" s="39" t="s">
         <v>1450</v>
@@ -23279,7 +23423,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="621" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:7" ht="14.25">
       <c r="A621" s="7"/>
       <c r="B621" s="39" t="s">
         <v>1452</v>
@@ -23300,7 +23444,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="622" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:7" ht="14.25">
       <c r="A622" s="10" t="s">
         <v>301</v>
       </c>
@@ -23323,7 +23467,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="623" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:7" ht="14.25">
       <c r="A623" s="8"/>
       <c r="B623" s="39" t="s">
         <v>1548</v>
@@ -23344,7 +23488,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="624" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:7" ht="14.25">
       <c r="A624" s="7" t="s">
         <v>304</v>
       </c>
@@ -23367,7 +23511,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="625" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:7" ht="14.25">
       <c r="A625" s="7"/>
       <c r="B625" s="39" t="s">
         <v>1458</v>
@@ -23388,7 +23532,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="626" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:7" ht="14.25">
       <c r="A626" s="7"/>
       <c r="B626" s="39" t="s">
         <v>1460</v>
@@ -23409,7 +23553,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="627" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:7" ht="14.25">
       <c r="A627" s="7"/>
       <c r="B627" s="39" t="s">
         <v>1462</v>
@@ -23430,7 +23574,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="628" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:7" ht="14.25">
       <c r="A628" s="7"/>
       <c r="B628" s="39" t="s">
         <v>1464</v>
@@ -23451,7 +23595,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="629" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:7" ht="14.25">
       <c r="A629" s="7"/>
       <c r="B629" s="39" t="s">
         <v>1466</v>
@@ -23472,7 +23616,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="630" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:7" ht="14.25">
       <c r="A630" s="7"/>
       <c r="B630" s="39" t="s">
         <v>1468</v>
@@ -23493,7 +23637,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="631" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:7" ht="14.25">
       <c r="A631" s="7"/>
       <c r="B631" s="39" t="s">
         <v>1470</v>
@@ -23514,7 +23658,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="632" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:7" ht="14.25">
       <c r="A632" s="7"/>
       <c r="B632" s="39" t="s">
         <v>1472</v>
@@ -23535,7 +23679,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="633" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:7" ht="14.25">
       <c r="A633" s="7"/>
       <c r="B633" s="39" t="s">
         <v>1474</v>
@@ -23556,7 +23700,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="634" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:7" ht="14.25">
       <c r="A634" s="7"/>
       <c r="B634" s="39" t="s">
         <v>1476</v>
@@ -23577,7 +23721,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="635" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:7" ht="14.25">
       <c r="A635" s="7"/>
       <c r="B635" s="38" t="s">
         <v>1478</v>
@@ -23598,7 +23742,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="636" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:7" ht="14.25">
       <c r="A636" s="7"/>
       <c r="B636" s="39" t="s">
         <v>1480</v>
@@ -23619,7 +23763,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="637" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:7" ht="14.25">
       <c r="A637" s="7" t="s">
         <v>307</v>
       </c>
@@ -23642,7 +23786,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="638" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:7" ht="14.25">
       <c r="A638" s="7"/>
       <c r="B638" s="38" t="s">
         <v>1484</v>
@@ -23663,7 +23807,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="639" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:7" ht="14.25">
       <c r="A639" s="7"/>
       <c r="B639" s="39" t="s">
         <v>1486</v>
@@ -23684,7 +23828,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="640" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:7" ht="14.25">
       <c r="A640" s="7"/>
       <c r="B640" s="39" t="s">
         <v>1488</v>
@@ -23705,7 +23849,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="641" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:7" ht="14.25">
       <c r="A641" s="7"/>
       <c r="B641" s="39" t="s">
         <v>1490</v>
@@ -23726,7 +23870,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="642" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:7" ht="14.25">
       <c r="A642" s="7"/>
       <c r="B642" s="39" t="s">
         <v>1492</v>
@@ -23747,7 +23891,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="643" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:7" ht="14.25">
       <c r="A643" s="7" t="s">
         <v>310</v>
       </c>
@@ -23770,7 +23914,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="644" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:7" ht="14.25">
       <c r="A644" s="7"/>
       <c r="B644" s="39" t="s">
         <v>1496</v>
@@ -23791,7 +23935,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="645" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:7" ht="14.25">
       <c r="A645" s="7"/>
       <c r="B645" s="39" t="s">
         <v>1498</v>
@@ -23812,7 +23956,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="646" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:7" ht="14.25">
       <c r="A646" s="7" t="s">
         <v>313</v>
       </c>
@@ -23835,7 +23979,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="647" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:7" ht="14.25">
       <c r="A647" s="7"/>
       <c r="B647" s="39" t="s">
         <v>1502</v>
@@ -23856,7 +24000,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="648" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:7" ht="14.25">
       <c r="A648" s="7"/>
       <c r="B648" s="39" t="s">
         <v>1504</v>
@@ -23877,7 +24021,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="649" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:7" ht="14.25">
       <c r="A649" s="7"/>
       <c r="B649" s="39" t="s">
         <v>1506</v>
@@ -23898,7 +24042,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="650" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:7" ht="14.25">
       <c r="A650" s="7" t="s">
         <v>318</v>
       </c>
@@ -23921,7 +24065,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="651" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:7" ht="14.25">
       <c r="A651" s="7"/>
       <c r="B651" s="39" t="s">
         <v>1510</v>
@@ -24056,6 +24200,6 @@
     <mergeCell ref="A533:A538"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="31" orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="31" r:id="rId1"/>
 </worksheet>
 </file>